--- a/Geolocations for Dai Nguyen.xlsx
+++ b/Geolocations for Dai Nguyen.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22325"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/83f8857ed581a638/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dainn\OneDrive\Desktop\geolocation\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="0" documentId="8_{4AF735E4-9A41-4FCD-8F83-173111A92177}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="30600" yWindow="-120" windowWidth="30960" windowHeight="16920" xr2:uid="{BA5F7A46-09DB-4617-9161-02E0EA83F7ED}"/>
+    <workbookView xWindow="9790" yWindow="8780" windowWidth="27570" windowHeight="11570" xr2:uid="{BA5F7A46-09DB-4617-9161-02E0EA83F7ED}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -2093,20 +2093,20 @@
   <dimension ref="A1:F121"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:A1048576"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="13" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="58.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="58.7265625" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.1796875" style="2" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="20" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="16384" width="9.140625" style="2"/>
+    <col min="4" max="5" width="14.7265625" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.453125" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="16384" width="9.1796875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2126,7 +2126,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>6</v>
       </c>
@@ -2146,7 +2146,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>12</v>
       </c>
@@ -2166,7 +2166,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>18</v>
       </c>
@@ -2186,7 +2186,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>24</v>
       </c>
@@ -2206,7 +2206,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>27</v>
       </c>
@@ -2226,7 +2226,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
         <v>33</v>
       </c>
@@ -2246,7 +2246,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
         <v>39</v>
       </c>
@@ -2266,7 +2266,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
         <v>45</v>
       </c>
@@ -2286,7 +2286,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
         <v>51</v>
       </c>
@@ -2306,7 +2306,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
         <v>57</v>
       </c>
@@ -2326,7 +2326,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
         <v>63</v>
       </c>
@@ -2346,7 +2346,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
         <v>69</v>
       </c>
@@ -2366,7 +2366,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
         <v>75</v>
       </c>
@@ -2386,7 +2386,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
         <v>81</v>
       </c>
@@ -2406,7 +2406,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
         <v>87</v>
       </c>
@@ -2426,7 +2426,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
         <v>93</v>
       </c>
@@ -2446,7 +2446,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" s="2" t="s">
         <v>96</v>
       </c>
@@ -2466,7 +2466,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" s="2" t="s">
         <v>87</v>
       </c>
@@ -2486,7 +2486,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" s="2" t="s">
         <v>101</v>
       </c>
@@ -2506,7 +2506,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" s="2" t="s">
         <v>105</v>
       </c>
@@ -2526,7 +2526,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" s="2" t="s">
         <v>87</v>
       </c>
@@ -2546,7 +2546,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" s="2" t="s">
         <v>112</v>
       </c>
@@ -2566,7 +2566,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24" s="2" t="s">
         <v>118</v>
       </c>
@@ -2586,7 +2586,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" s="2" t="s">
         <v>124</v>
       </c>
@@ -2606,7 +2606,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26" s="2" t="s">
         <v>130</v>
       </c>
@@ -2626,7 +2626,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27" s="2" t="s">
         <v>136</v>
       </c>
@@ -2646,7 +2646,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A28" s="2" t="s">
         <v>142</v>
       </c>
@@ -2666,7 +2666,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A29" s="2" t="s">
         <v>148</v>
       </c>
@@ -2686,7 +2686,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A30" s="2" t="s">
         <v>154</v>
       </c>
@@ -2706,7 +2706,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A31" s="2" t="s">
         <v>160</v>
       </c>
@@ -2726,7 +2726,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A32" s="2" t="s">
         <v>154</v>
       </c>
@@ -2746,7 +2746,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A33" s="2" t="s">
         <v>154</v>
       </c>
@@ -2766,7 +2766,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A34" s="2" t="s">
         <v>154</v>
       </c>
@@ -2786,7 +2786,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A35" s="2" t="s">
         <v>154</v>
       </c>
@@ -2806,7 +2806,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A36" s="2" t="s">
         <v>154</v>
       </c>
@@ -2826,7 +2826,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A37" s="2" t="s">
         <v>154</v>
       </c>
@@ -2846,7 +2846,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A38" s="2" t="s">
         <v>154</v>
       </c>
@@ -2866,7 +2866,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A39" s="2" t="s">
         <v>154</v>
       </c>
@@ -2886,7 +2886,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A40" s="2" t="s">
         <v>154</v>
       </c>
@@ -2906,7 +2906,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A41" s="2" t="s">
         <v>154</v>
       </c>
@@ -2926,7 +2926,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A42" s="2" t="s">
         <v>154</v>
       </c>
@@ -2946,7 +2946,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A43" s="2" t="s">
         <v>198</v>
       </c>
@@ -2966,7 +2966,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A44" s="2" t="s">
         <v>204</v>
       </c>
@@ -2986,7 +2986,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A45" s="2" t="s">
         <v>210</v>
       </c>
@@ -3006,7 +3006,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A46" s="2" t="s">
         <v>216</v>
       </c>
@@ -3026,7 +3026,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A47" s="2" t="s">
         <v>222</v>
       </c>
@@ -3046,7 +3046,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A48" s="2" t="s">
         <v>224</v>
       </c>
@@ -3066,7 +3066,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A49" s="2" t="s">
         <v>230</v>
       </c>
@@ -3086,7 +3086,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A50" s="2" t="s">
         <v>236</v>
       </c>
@@ -3106,7 +3106,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A51" s="2" t="s">
         <v>242</v>
       </c>
@@ -3126,7 +3126,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A52" s="2" t="s">
         <v>248</v>
       </c>
@@ -3146,7 +3146,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A53" s="2" t="s">
         <v>254</v>
       </c>
@@ -3166,7 +3166,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A54" s="2" t="s">
         <v>258</v>
       </c>
@@ -3186,7 +3186,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A55" s="2" t="s">
         <v>264</v>
       </c>
@@ -3206,7 +3206,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A56" s="2" t="s">
         <v>270</v>
       </c>
@@ -3226,7 +3226,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A57" s="2" t="s">
         <v>276</v>
       </c>
@@ -3246,7 +3246,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A58" s="2" t="s">
         <v>118</v>
       </c>
@@ -3266,7 +3266,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A59" s="2" t="s">
         <v>118</v>
       </c>
@@ -3286,7 +3286,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A60" s="2" t="s">
         <v>118</v>
       </c>
@@ -3306,7 +3306,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A61" s="2" t="s">
         <v>118</v>
       </c>
@@ -3326,7 +3326,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A62" s="2" t="s">
         <v>118</v>
       </c>
@@ -3346,7 +3346,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A63" s="2" t="s">
         <v>118</v>
       </c>
@@ -3366,7 +3366,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A64" s="2" t="s">
         <v>118</v>
       </c>
@@ -3386,7 +3386,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A65" s="2" t="s">
         <v>307</v>
       </c>
@@ -3406,7 +3406,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A66" s="2" t="s">
         <v>307</v>
       </c>
@@ -3426,7 +3426,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A67" s="2" t="s">
         <v>314</v>
       </c>
@@ -3446,7 +3446,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A68" s="2" t="s">
         <v>319</v>
       </c>
@@ -3466,7 +3466,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A69" s="2" t="s">
         <v>118</v>
       </c>
@@ -3486,7 +3486,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A70" s="2" t="s">
         <v>325</v>
       </c>
@@ -3506,7 +3506,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A71" s="2" t="s">
         <v>118</v>
       </c>
@@ -3526,7 +3526,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A72" s="2" t="s">
         <v>118</v>
       </c>
@@ -3546,7 +3546,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A73" s="2" t="s">
         <v>333</v>
       </c>
@@ -3566,7 +3566,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A74" s="2" t="s">
         <v>338</v>
       </c>
@@ -3586,7 +3586,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A75" s="2" t="s">
         <v>198</v>
       </c>
@@ -3606,7 +3606,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A76" s="2" t="s">
         <v>343</v>
       </c>
@@ -3626,7 +3626,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A77" s="2" t="s">
         <v>347</v>
       </c>
@@ -3646,7 +3646,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A78" s="2" t="s">
         <v>350</v>
       </c>
@@ -3666,7 +3666,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A79" s="2" t="s">
         <v>314</v>
       </c>
@@ -3686,7 +3686,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A80" s="2" t="s">
         <v>357</v>
       </c>
@@ -3706,7 +3706,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A81" s="2" t="s">
         <v>361</v>
       </c>
@@ -3726,7 +3726,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A82" s="2" t="s">
         <v>365</v>
       </c>
@@ -3746,7 +3746,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A83" s="2" t="s">
         <v>369</v>
       </c>
@@ -3766,7 +3766,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A84" s="2" t="s">
         <v>118</v>
       </c>
@@ -3786,7 +3786,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A85" s="2" t="s">
         <v>314</v>
       </c>
@@ -3806,7 +3806,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A86" s="2" t="s">
         <v>377</v>
       </c>
@@ -3826,7 +3826,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A87" s="2" t="s">
         <v>383</v>
       </c>
@@ -3846,7 +3846,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A88" s="2" t="s">
         <v>389</v>
       </c>
@@ -3866,7 +3866,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A89" s="2" t="s">
         <v>395</v>
       </c>
@@ -3886,7 +3886,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A90" s="2" t="s">
         <v>118</v>
       </c>
@@ -3906,7 +3906,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A91" s="2" t="s">
         <v>404</v>
       </c>
@@ -3926,7 +3926,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A92" s="2" t="s">
         <v>408</v>
       </c>
@@ -3946,7 +3946,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A93" s="2" t="s">
         <v>414</v>
       </c>
@@ -3966,7 +3966,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A94" s="2" t="s">
         <v>420</v>
       </c>
@@ -3986,7 +3986,7 @@
         <v>425</v>
       </c>
     </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A95" s="2" t="s">
         <v>426</v>
       </c>
@@ -4006,7 +4006,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A96" s="2" t="s">
         <v>432</v>
       </c>
@@ -4026,7 +4026,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A97" s="2" t="s">
         <v>438</v>
       </c>
@@ -4046,7 +4046,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A98" s="2" t="s">
         <v>444</v>
       </c>
@@ -4066,7 +4066,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A99" s="2" t="s">
         <v>450</v>
       </c>
@@ -4086,7 +4086,7 @@
         <v>454</v>
       </c>
     </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A100" s="2" t="s">
         <v>455</v>
       </c>
@@ -4106,7 +4106,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A101" s="2" t="s">
         <v>198</v>
       </c>
@@ -4126,7 +4126,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A102" s="2" t="s">
         <v>198</v>
       </c>
@@ -4146,7 +4146,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A103" s="2" t="s">
         <v>468</v>
       </c>
@@ -4166,7 +4166,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A104" s="2" t="s">
         <v>474</v>
       </c>
@@ -4186,7 +4186,7 @@
         <v>479</v>
       </c>
     </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A105" s="2" t="s">
         <v>474</v>
       </c>
@@ -4206,7 +4206,7 @@
         <v>479</v>
       </c>
     </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A106" s="2" t="s">
         <v>474</v>
       </c>
@@ -4226,7 +4226,7 @@
         <v>484</v>
       </c>
     </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A107" s="2" t="s">
         <v>198</v>
       </c>
@@ -4246,7 +4246,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A108" s="2" t="s">
         <v>490</v>
       </c>
@@ -4266,7 +4266,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="109" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A109" s="2" t="s">
         <v>496</v>
       </c>
@@ -4286,7 +4286,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="110" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A110" s="2" t="s">
         <v>502</v>
       </c>
@@ -4306,7 +4306,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="111" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A111" s="2" t="s">
         <v>502</v>
       </c>
@@ -4326,7 +4326,7 @@
         <v>512</v>
       </c>
     </row>
-    <row r="112" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A112" s="2" t="s">
         <v>513</v>
       </c>
@@ -4346,7 +4346,7 @@
         <v>518</v>
       </c>
     </row>
-    <row r="113" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A113" s="2" t="s">
         <v>519</v>
       </c>
@@ -4366,7 +4366,7 @@
         <v>524</v>
       </c>
     </row>
-    <row r="114" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A114" s="2" t="s">
         <v>525</v>
       </c>
@@ -4386,7 +4386,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="115" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A115" s="2" t="s">
         <v>531</v>
       </c>
@@ -4406,7 +4406,7 @@
         <v>536</v>
       </c>
     </row>
-    <row r="116" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A116" s="2" t="s">
         <v>537</v>
       </c>
@@ -4426,7 +4426,7 @@
         <v>542</v>
       </c>
     </row>
-    <row r="117" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A117" s="2" t="s">
         <v>543</v>
       </c>
@@ -4446,7 +4446,7 @@
         <v>548</v>
       </c>
     </row>
-    <row r="118" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A118" s="2" t="s">
         <v>549</v>
       </c>
@@ -4466,7 +4466,7 @@
         <v>551</v>
       </c>
     </row>
-    <row r="119" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A119" s="2" t="s">
         <v>543</v>
       </c>
@@ -4486,7 +4486,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="120" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A120" s="2" t="s">
         <v>365</v>
       </c>
@@ -4506,7 +4506,7 @@
         <v>559</v>
       </c>
     </row>
-    <row r="121" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A121" s="2" t="s">
         <v>560</v>
       </c>

--- a/Geolocations for Dai Nguyen.xlsx
+++ b/Geolocations for Dai Nguyen.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dainn\OneDrive\Desktop\geolocation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4AF735E4-9A41-4FCD-8F83-173111A92177}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="109" documentId="8_{4AF735E4-9A41-4FCD-8F83-173111A92177}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{6B3932BD-F1C5-430D-9813-F774E4745687}"/>
   <bookViews>
-    <workbookView xWindow="9790" yWindow="8780" windowWidth="27570" windowHeight="11570" xr2:uid="{BA5F7A46-09DB-4617-9161-02E0EA83F7ED}"/>
+    <workbookView xWindow="4740" yWindow="1000" windowWidth="33740" windowHeight="19620" xr2:uid="{BA5F7A46-09DB-4617-9161-02E0EA83F7ED}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -23,6 +23,9 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -30,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="726" uniqueCount="564">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="739" uniqueCount="577">
   <si>
     <t>LaboratoryName</t>
   </si>
@@ -1722,13 +1725,52 @@
   </si>
   <si>
     <t>1244.13 m</t>
+  </si>
+  <si>
+    <t>id</t>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>lat_degree</t>
+  </si>
+  <si>
+    <t>lat_minute</t>
+  </si>
+  <si>
+    <t>lat_seconds</t>
+  </si>
+  <si>
+    <t>lat_direction</t>
+  </si>
+  <si>
+    <t>long_degree</t>
+  </si>
+  <si>
+    <t>long_minute</t>
+  </si>
+  <si>
+    <t>long_seconds</t>
+  </si>
+  <si>
+    <t>long_direction</t>
+  </si>
+  <si>
+    <t>LAT</t>
+  </si>
+  <si>
+    <t>LONG</t>
+  </si>
+  <si>
+    <t>altitude</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1751,13 +1793,33 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -1769,15 +1831,18 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Good" xfId="1" builtinId="26"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -2090,10 +2155,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7F1E4A39-5115-4C9C-8E42-E3F080E017D4}">
-  <dimension ref="A1:F121"/>
+  <dimension ref="A1:T121"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="S22" sqref="S22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="13" x14ac:dyDescent="0.3"/>
@@ -2103,10 +2168,21 @@
     <col min="3" max="3" width="20" style="2" bestFit="1" customWidth="1"/>
     <col min="4" max="5" width="14.7265625" style="2" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="13.453125" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="16384" width="9.1796875" style="2"/>
+    <col min="7" max="9" width="9.1796875" style="2"/>
+    <col min="10" max="10" width="9.6328125" style="2" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.81640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9.1796875" style="2"/>
+    <col min="13" max="13" width="11.26953125" style="2" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="11.08984375" style="2" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="11.26953125" style="2" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="9.1796875" style="2"/>
+    <col min="17" max="17" width="12.7265625" style="2" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="3.81640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="5.54296875" style="2" bestFit="1" customWidth="1"/>
+    <col min="20" max="16384" width="9.1796875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:20" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2125,8 +2201,47 @@
       <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="H1" s="3" t="s">
+        <v>564</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>565</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>566</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>567</v>
+      </c>
+      <c r="L1" s="3" t="s">
+        <v>568</v>
+      </c>
+      <c r="M1" s="3" t="s">
+        <v>569</v>
+      </c>
+      <c r="N1" s="3" t="s">
+        <v>570</v>
+      </c>
+      <c r="O1" s="3" t="s">
+        <v>571</v>
+      </c>
+      <c r="P1" s="3" t="s">
+        <v>572</v>
+      </c>
+      <c r="Q1" s="3" t="s">
+        <v>573</v>
+      </c>
+      <c r="R1" s="3" t="s">
+        <v>574</v>
+      </c>
+      <c r="S1" s="3" t="s">
+        <v>575</v>
+      </c>
+      <c r="T1" s="3" t="s">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>6</v>
       </c>
@@ -2145,8 +2260,44 @@
       <c r="F2" s="2" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="H2" s="2">
+        <f>1</f>
+        <v>1</v>
+      </c>
+      <c r="J2" s="2" t="str">
+        <f>LEFT(B2,SEARCH("°",B2,1) -1)</f>
+        <v>0</v>
+      </c>
+      <c r="K2" s="2" t="str">
+        <f>MID(B2,SEARCH("°",B2)+1,SEARCH(" ",B2)-1)</f>
+        <v xml:space="preserve"> 8</v>
+      </c>
+      <c r="L2" s="2" t="str">
+        <f>MID(B2,SEARCH("min",B2)+3,7)</f>
+        <v xml:space="preserve"> 9.357 </v>
+      </c>
+      <c r="M2" s="2" t="str">
+        <f>RIGHT(B2,1)</f>
+        <v>S</v>
+      </c>
+      <c r="N2" s="2" t="str">
+        <f>LEFT(C2,SEARCH("°",C2,1) -1)</f>
+        <v>78</v>
+      </c>
+      <c r="O2" s="2" t="str">
+        <f>MID(C2,SEARCH("°",C2)+1,SEARCH(" ",C2)-1)</f>
+        <v xml:space="preserve"> 28</v>
+      </c>
+      <c r="P2" s="2" t="str">
+        <f>MID(C2,SEARCH("min",C2)+3,7)</f>
+        <v xml:space="preserve"> 31.945</v>
+      </c>
+      <c r="Q2" s="2" t="str">
+        <f>RIGHT(C2,1)</f>
+        <v>W</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>12</v>
       </c>
@@ -2165,8 +2316,44 @@
       <c r="F3" s="2" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="H3" s="2">
+        <f>H2+1</f>
+        <v>2</v>
+      </c>
+      <c r="J3" s="2" t="str">
+        <f t="shared" ref="J3:J66" si="0">LEFT(B3,SEARCH("°",B3,1) -1)</f>
+        <v>10</v>
+      </c>
+      <c r="K3" s="2" t="str">
+        <f t="shared" ref="K3:K66" si="1">MID(B3,SEARCH("°",B3)+1,SEARCH(" ",B3)-1)</f>
+        <v xml:space="preserve"> 38</v>
+      </c>
+      <c r="L3" s="2" t="str">
+        <f t="shared" ref="L3:L66" si="2">MID(B3,SEARCH("min",B3)+3,7)</f>
+        <v xml:space="preserve"> 27.420</v>
+      </c>
+      <c r="M3" s="2" t="str">
+        <f t="shared" ref="M3:M5" si="3">RIGHT(B3,1)</f>
+        <v>N</v>
+      </c>
+      <c r="N3" s="2" t="str">
+        <f t="shared" ref="N3:N66" si="4">LEFT(C3,SEARCH("°",C3,1) -1)</f>
+        <v>61</v>
+      </c>
+      <c r="O3" s="2" t="str">
+        <f t="shared" ref="O3:O66" si="5">MID(C3,SEARCH("°",C3)+1,SEARCH(" ",C3)-1)</f>
+        <v xml:space="preserve"> 22</v>
+      </c>
+      <c r="P3" s="2" t="str">
+        <f t="shared" ref="P3:P66" si="6">MID(C3,SEARCH("min",C3)+3,7)</f>
+        <v xml:space="preserve"> 51.969</v>
+      </c>
+      <c r="Q3" s="2" t="str">
+        <f t="shared" ref="Q3:Q66" si="7">RIGHT(C3,1)</f>
+        <v>W</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>18</v>
       </c>
@@ -2185,8 +2372,44 @@
       <c r="F4" s="2" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="H4" s="2">
+        <f t="shared" ref="H4:H67" si="8">H3+1</f>
+        <v>3</v>
+      </c>
+      <c r="J4" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="K4" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve"> 5 </v>
+      </c>
+      <c r="L4" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve"> 7.520 </v>
+      </c>
+      <c r="M4" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>S</v>
+      </c>
+      <c r="N4" s="2" t="str">
+        <f t="shared" si="4"/>
+        <v>77</v>
+      </c>
+      <c r="O4" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v xml:space="preserve"> 0 </v>
+      </c>
+      <c r="P4" s="2" t="str">
+        <f t="shared" si="6"/>
+        <v xml:space="preserve"> 26.258</v>
+      </c>
+      <c r="Q4" s="2" t="str">
+        <f t="shared" si="7"/>
+        <v>W</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>24</v>
       </c>
@@ -2205,8 +2428,44 @@
       <c r="F5" s="2" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="H5" s="2">
+        <f t="shared" si="8"/>
+        <v>4</v>
+      </c>
+      <c r="J5" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="K5" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve"> 5 </v>
+      </c>
+      <c r="L5" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve"> 7.520 </v>
+      </c>
+      <c r="M5" s="2" t="str">
+        <f t="shared" ref="M5:M10" si="9">RIGHT(B5,1)</f>
+        <v>S</v>
+      </c>
+      <c r="N5" s="2" t="str">
+        <f t="shared" si="4"/>
+        <v>77</v>
+      </c>
+      <c r="O5" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v xml:space="preserve"> 0 </v>
+      </c>
+      <c r="P5" s="2" t="str">
+        <f t="shared" si="6"/>
+        <v xml:space="preserve"> 26.262</v>
+      </c>
+      <c r="Q5" s="2" t="str">
+        <f t="shared" si="7"/>
+        <v>W</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>27</v>
       </c>
@@ -2225,8 +2484,44 @@
       <c r="F6" s="2" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="H6" s="2">
+        <f t="shared" si="8"/>
+        <v>5</v>
+      </c>
+      <c r="J6" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="K6" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve"> 43</v>
+      </c>
+      <c r="L6" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve"> 13.213</v>
+      </c>
+      <c r="M6" s="2" t="str">
+        <f t="shared" si="9"/>
+        <v>N</v>
+      </c>
+      <c r="N6" s="2" t="str">
+        <f t="shared" si="4"/>
+        <v>89</v>
+      </c>
+      <c r="O6" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v xml:space="preserve"> 12</v>
+      </c>
+      <c r="P6" s="2" t="str">
+        <f t="shared" si="6"/>
+        <v xml:space="preserve"> 0.835 </v>
+      </c>
+      <c r="Q6" s="2" t="str">
+        <f t="shared" si="7"/>
+        <v>W</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
         <v>33</v>
       </c>
@@ -2245,8 +2540,44 @@
       <c r="F7" s="2" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="H7" s="2">
+        <f t="shared" si="8"/>
+        <v>6</v>
+      </c>
+      <c r="J7" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="K7" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve"> 1 </v>
+      </c>
+      <c r="L7" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve"> 26.419</v>
+      </c>
+      <c r="M7" s="2" t="str">
+        <f t="shared" si="9"/>
+        <v>N</v>
+      </c>
+      <c r="N7" s="2" t="str">
+        <f t="shared" si="4"/>
+        <v>60</v>
+      </c>
+      <c r="O7" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v xml:space="preserve"> 58</v>
+      </c>
+      <c r="P7" s="2" t="str">
+        <f t="shared" si="6"/>
+        <v xml:space="preserve"> 33.704</v>
+      </c>
+      <c r="Q7" s="2" t="str">
+        <f t="shared" si="7"/>
+        <v>W</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
         <v>39</v>
       </c>
@@ -2265,8 +2596,44 @@
       <c r="F8" s="2" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="H8" s="2">
+        <f t="shared" si="8"/>
+        <v>7</v>
+      </c>
+      <c r="J8" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="K8" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve"> 35</v>
+      </c>
+      <c r="L8" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve"> 24.774</v>
+      </c>
+      <c r="M8" s="2" t="str">
+        <f t="shared" si="9"/>
+        <v>N</v>
+      </c>
+      <c r="N8" s="2" t="str">
+        <f t="shared" si="4"/>
+        <v>90</v>
+      </c>
+      <c r="O8" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v xml:space="preserve"> 32</v>
+      </c>
+      <c r="P8" s="2" t="str">
+        <f t="shared" si="6"/>
+        <v xml:space="preserve"> 31.394</v>
+      </c>
+      <c r="Q8" s="2" t="str">
+        <f t="shared" si="7"/>
+        <v>W</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
         <v>45</v>
       </c>
@@ -2285,8 +2652,44 @@
       <c r="F9" s="2" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="H9" s="2">
+        <f t="shared" si="8"/>
+        <v>8</v>
+      </c>
+      <c r="J9" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="K9" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve"> 30</v>
+      </c>
+      <c r="L9" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve"> 1.043 </v>
+      </c>
+      <c r="M9" s="2" t="str">
+        <f t="shared" si="9"/>
+        <v>S</v>
+      </c>
+      <c r="N9" s="2" t="str">
+        <f t="shared" si="4"/>
+        <v>68</v>
+      </c>
+      <c r="O9" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v xml:space="preserve"> 7 </v>
+      </c>
+      <c r="P9" s="2" t="str">
+        <f t="shared" si="6"/>
+        <v xml:space="preserve"> 57.024</v>
+      </c>
+      <c r="Q9" s="2" t="str">
+        <f t="shared" si="7"/>
+        <v>W</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
         <v>51</v>
       </c>
@@ -2305,8 +2708,44 @@
       <c r="F10" s="2" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="H10" s="2">
+        <f t="shared" si="8"/>
+        <v>9</v>
+      </c>
+      <c r="J10" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>17</v>
+      </c>
+      <c r="K10" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve"> 15</v>
+      </c>
+      <c r="L10" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve"> 13.707</v>
+      </c>
+      <c r="M10" s="2" t="str">
+        <f t="shared" si="9"/>
+        <v>N</v>
+      </c>
+      <c r="N10" s="2" t="str">
+        <f t="shared" si="4"/>
+        <v>88</v>
+      </c>
+      <c r="O10" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v xml:space="preserve"> 46</v>
+      </c>
+      <c r="P10" s="2" t="str">
+        <f t="shared" si="6"/>
+        <v xml:space="preserve"> 46.660</v>
+      </c>
+      <c r="Q10" s="2" t="str">
+        <f t="shared" si="7"/>
+        <v>W</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
         <v>57</v>
       </c>
@@ -2325,8 +2764,44 @@
       <c r="F11" s="2" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="H11" s="2">
+        <f t="shared" si="8"/>
+        <v>10</v>
+      </c>
+      <c r="J11" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>17</v>
+      </c>
+      <c r="K11" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve"> 17</v>
+      </c>
+      <c r="L11" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve"> 55.420</v>
+      </c>
+      <c r="M11" s="2" t="str">
+        <f t="shared" ref="M11:M74" si="10">RIGHT(B11,1)</f>
+        <v>N</v>
+      </c>
+      <c r="N11" s="2" t="str">
+        <f t="shared" si="4"/>
+        <v>62</v>
+      </c>
+      <c r="O11" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v xml:space="preserve"> 44</v>
+      </c>
+      <c r="P11" s="2" t="str">
+        <f t="shared" si="6"/>
+        <v xml:space="preserve"> 2.565 </v>
+      </c>
+      <c r="Q11" s="2" t="str">
+        <f t="shared" si="7"/>
+        <v>W</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
         <v>63</v>
       </c>
@@ -2345,8 +2820,44 @@
       <c r="F12" s="2" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="H12" s="2">
+        <f t="shared" si="8"/>
+        <v>11</v>
+      </c>
+      <c r="J12" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>17</v>
+      </c>
+      <c r="K12" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve"> 7 </v>
+      </c>
+      <c r="L12" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve"> 34.395</v>
+      </c>
+      <c r="M12" s="2" t="str">
+        <f t="shared" si="10"/>
+        <v>N</v>
+      </c>
+      <c r="N12" s="2" t="str">
+        <f t="shared" si="4"/>
+        <v>61</v>
+      </c>
+      <c r="O12" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v xml:space="preserve"> 49</v>
+      </c>
+      <c r="P12" s="2" t="str">
+        <f t="shared" si="6"/>
+        <v xml:space="preserve"> 18.409</v>
+      </c>
+      <c r="Q12" s="2" t="str">
+        <f t="shared" si="7"/>
+        <v>W</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
         <v>69</v>
       </c>
@@ -2365,8 +2876,44 @@
       <c r="F13" s="2" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="H13" s="2">
+        <f t="shared" si="8"/>
+        <v>12</v>
+      </c>
+      <c r="J13" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+      <c r="K13" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve"> 0 </v>
+      </c>
+      <c r="L13" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve"> 40.715</v>
+      </c>
+      <c r="M13" s="2" t="str">
+        <f t="shared" si="10"/>
+        <v>N</v>
+      </c>
+      <c r="N13" s="2" t="str">
+        <f t="shared" si="4"/>
+        <v>76</v>
+      </c>
+      <c r="O13" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v xml:space="preserve"> 47</v>
+      </c>
+      <c r="P13" s="2" t="str">
+        <f t="shared" si="6"/>
+        <v xml:space="preserve"> 32.836</v>
+      </c>
+      <c r="Q13" s="2" t="str">
+        <f t="shared" si="7"/>
+        <v>W</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
         <v>75</v>
       </c>
@@ -2385,8 +2932,44 @@
       <c r="F14" s="2" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="H14" s="2">
+        <f t="shared" si="8"/>
+        <v>13</v>
+      </c>
+      <c r="J14" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+      <c r="K14" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve"> 20</v>
+      </c>
+      <c r="L14" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve"> 48.248</v>
+      </c>
+      <c r="M14" s="2" t="str">
+        <f t="shared" si="10"/>
+        <v>N</v>
+      </c>
+      <c r="N14" s="2" t="str">
+        <f t="shared" si="4"/>
+        <v>66</v>
+      </c>
+      <c r="O14" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v xml:space="preserve"> 45</v>
+      </c>
+      <c r="P14" s="2" t="str">
+        <f t="shared" si="6"/>
+        <v xml:space="preserve"> 12.361</v>
+      </c>
+      <c r="Q14" s="2" t="str">
+        <f t="shared" si="7"/>
+        <v>W</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
         <v>81</v>
       </c>
@@ -2405,8 +2988,44 @@
       <c r="F15" s="2" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="H15" s="2">
+        <f t="shared" si="8"/>
+        <v>14</v>
+      </c>
+      <c r="J15" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+      <c r="K15" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve"> 27</v>
+      </c>
+      <c r="L15" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve"> 57.917</v>
+      </c>
+      <c r="M15" s="2" t="str">
+        <f t="shared" si="10"/>
+        <v>N</v>
+      </c>
+      <c r="N15" s="2" t="str">
+        <f t="shared" si="4"/>
+        <v>69</v>
+      </c>
+      <c r="O15" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v xml:space="preserve"> 53</v>
+      </c>
+      <c r="P15" s="2" t="str">
+        <f t="shared" si="6"/>
+        <v xml:space="preserve"> 44.116</v>
+      </c>
+      <c r="Q15" s="2" t="str">
+        <f t="shared" si="7"/>
+        <v>W</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
         <v>87</v>
       </c>
@@ -2425,8 +3044,44 @@
       <c r="F16" s="2" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="H16" s="2">
+        <f t="shared" si="8"/>
+        <v>15</v>
+      </c>
+      <c r="J16" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="K16" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve"> 32</v>
+      </c>
+      <c r="L16" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve"> 13.200</v>
+      </c>
+      <c r="M16" s="2" t="str">
+        <f t="shared" si="10"/>
+        <v>N</v>
+      </c>
+      <c r="N16" s="2" t="str">
+        <f t="shared" si="4"/>
+        <v>100</v>
+      </c>
+      <c r="O16" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v xml:space="preserve"> 15 </v>
+      </c>
+      <c r="P16" s="2" t="str">
+        <f t="shared" si="6"/>
+        <v xml:space="preserve"> 16.830</v>
+      </c>
+      <c r="Q16" s="2" t="str">
+        <f t="shared" si="7"/>
+        <v>W</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
         <v>93</v>
       </c>
@@ -2445,8 +3100,44 @@
       <c r="F17" s="2" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="H17" s="2">
+        <f t="shared" si="8"/>
+        <v>16</v>
+      </c>
+      <c r="J17" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="K17" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve"> 32</v>
+      </c>
+      <c r="L17" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve"> 13.275</v>
+      </c>
+      <c r="M17" s="2" t="str">
+        <f t="shared" si="10"/>
+        <v>N</v>
+      </c>
+      <c r="N17" s="2" t="str">
+        <f t="shared" si="4"/>
+        <v>100</v>
+      </c>
+      <c r="O17" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v xml:space="preserve"> 15 </v>
+      </c>
+      <c r="P17" s="2" t="str">
+        <f t="shared" si="6"/>
+        <v xml:space="preserve"> 17.204</v>
+      </c>
+      <c r="Q17" s="2" t="str">
+        <f t="shared" si="7"/>
+        <v>W</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="2" t="s">
         <v>96</v>
       </c>
@@ -2465,8 +3156,44 @@
       <c r="F18" s="2" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="H18" s="2">
+        <f t="shared" si="8"/>
+        <v>17</v>
+      </c>
+      <c r="J18" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="K18" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve"> 32</v>
+      </c>
+      <c r="L18" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve"> 13.290</v>
+      </c>
+      <c r="M18" s="2" t="str">
+        <f t="shared" si="10"/>
+        <v>N</v>
+      </c>
+      <c r="N18" s="2" t="str">
+        <f t="shared" si="4"/>
+        <v>100</v>
+      </c>
+      <c r="O18" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v xml:space="preserve"> 15 </v>
+      </c>
+      <c r="P18" s="2" t="str">
+        <f t="shared" si="6"/>
+        <v xml:space="preserve"> 17.238</v>
+      </c>
+      <c r="Q18" s="2" t="str">
+        <f t="shared" si="7"/>
+        <v>W</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="2" t="s">
         <v>87</v>
       </c>
@@ -2485,8 +3212,44 @@
       <c r="F19" s="2" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="H19" s="2">
+        <f t="shared" si="8"/>
+        <v>18</v>
+      </c>
+      <c r="J19" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="K19" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve"> 32</v>
+      </c>
+      <c r="L19" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve"> 13.303</v>
+      </c>
+      <c r="M19" s="2" t="str">
+        <f t="shared" si="10"/>
+        <v>N</v>
+      </c>
+      <c r="N19" s="2" t="str">
+        <f t="shared" si="4"/>
+        <v>100</v>
+      </c>
+      <c r="O19" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v xml:space="preserve"> 15 </v>
+      </c>
+      <c r="P19" s="2" t="str">
+        <f t="shared" si="6"/>
+        <v xml:space="preserve"> 17.194</v>
+      </c>
+      <c r="Q19" s="2" t="str">
+        <f t="shared" si="7"/>
+        <v>W</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="2" t="s">
         <v>101</v>
       </c>
@@ -2505,8 +3268,44 @@
       <c r="F20" s="2" t="s">
         <v>104</v>
       </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="H20" s="2">
+        <f t="shared" si="8"/>
+        <v>19</v>
+      </c>
+      <c r="J20" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="K20" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve"> 32</v>
+      </c>
+      <c r="L20" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve"> 13.317</v>
+      </c>
+      <c r="M20" s="2" t="str">
+        <f t="shared" si="10"/>
+        <v>N</v>
+      </c>
+      <c r="N20" s="2" t="str">
+        <f t="shared" si="4"/>
+        <v>100</v>
+      </c>
+      <c r="O20" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v xml:space="preserve"> 15 </v>
+      </c>
+      <c r="P20" s="2" t="str">
+        <f t="shared" si="6"/>
+        <v xml:space="preserve"> 17.213</v>
+      </c>
+      <c r="Q20" s="2" t="str">
+        <f t="shared" si="7"/>
+        <v>W</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A21" s="2" t="s">
         <v>105</v>
       </c>
@@ -2525,8 +3324,44 @@
       <c r="F21" s="2" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="H21" s="2">
+        <f t="shared" si="8"/>
+        <v>20</v>
+      </c>
+      <c r="J21" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="K21" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve"> 32</v>
+      </c>
+      <c r="L21" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve"> 13.373</v>
+      </c>
+      <c r="M21" s="2" t="str">
+        <f t="shared" si="10"/>
+        <v>N</v>
+      </c>
+      <c r="N21" s="2" t="str">
+        <f t="shared" si="4"/>
+        <v>100</v>
+      </c>
+      <c r="O21" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v xml:space="preserve"> 15 </v>
+      </c>
+      <c r="P21" s="2" t="str">
+        <f t="shared" si="6"/>
+        <v xml:space="preserve"> 17.204</v>
+      </c>
+      <c r="Q21" s="2" t="str">
+        <f t="shared" si="7"/>
+        <v>W</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="2" t="s">
         <v>87</v>
       </c>
@@ -2545,8 +3380,44 @@
       <c r="F22" s="2" t="s">
         <v>111</v>
       </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="H22" s="2">
+        <f t="shared" si="8"/>
+        <v>21</v>
+      </c>
+      <c r="J22" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="K22" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve"> 35</v>
+      </c>
+      <c r="L22" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve"> 38.760</v>
+      </c>
+      <c r="M22" s="2" t="str">
+        <f t="shared" si="10"/>
+        <v>N</v>
+      </c>
+      <c r="N22" s="2" t="str">
+        <f t="shared" si="4"/>
+        <v>100</v>
+      </c>
+      <c r="O22" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v xml:space="preserve"> 22 </v>
+      </c>
+      <c r="P22" s="2" t="str">
+        <f t="shared" si="6"/>
+        <v xml:space="preserve"> 19.236</v>
+      </c>
+      <c r="Q22" s="2" t="str">
+        <f t="shared" si="7"/>
+        <v>W</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A23" s="2" t="s">
         <v>112</v>
       </c>
@@ -2565,8 +3436,44 @@
       <c r="F23" s="2" t="s">
         <v>117</v>
       </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="H23" s="2">
+        <f t="shared" si="8"/>
+        <v>22</v>
+      </c>
+      <c r="J23" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="K23" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve"> 37</v>
+      </c>
+      <c r="L23" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve"> 48.774</v>
+      </c>
+      <c r="M23" s="2" t="str">
+        <f t="shared" si="10"/>
+        <v>N</v>
+      </c>
+      <c r="N23" s="2" t="str">
+        <f t="shared" si="4"/>
+        <v>101</v>
+      </c>
+      <c r="O23" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v xml:space="preserve"> 17 </v>
+      </c>
+      <c r="P23" s="2" t="str">
+        <f t="shared" si="6"/>
+        <v xml:space="preserve"> 25.782</v>
+      </c>
+      <c r="Q23" s="2" t="str">
+        <f t="shared" si="7"/>
+        <v>W</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="2" t="s">
         <v>118</v>
       </c>
@@ -2585,8 +3492,44 @@
       <c r="F24" s="2" t="s">
         <v>123</v>
       </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="H24" s="2">
+        <f t="shared" si="8"/>
+        <v>23</v>
+      </c>
+      <c r="J24" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>21</v>
+      </c>
+      <c r="K24" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve"> 59</v>
+      </c>
+      <c r="L24" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve"> 16.467</v>
+      </c>
+      <c r="M24" s="2" t="str">
+        <f t="shared" si="10"/>
+        <v>N</v>
+      </c>
+      <c r="N24" s="2" t="str">
+        <f t="shared" si="4"/>
+        <v>159</v>
+      </c>
+      <c r="O24" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v xml:space="preserve"> 45 </v>
+      </c>
+      <c r="P24" s="2" t="str">
+        <f t="shared" si="6"/>
+        <v xml:space="preserve"> 46.798</v>
+      </c>
+      <c r="Q24" s="2" t="str">
+        <f t="shared" si="7"/>
+        <v>W</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="2" t="s">
         <v>124</v>
       </c>
@@ -2605,8 +3548,44 @@
       <c r="F25" s="2" t="s">
         <v>129</v>
       </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="H25" s="2">
+        <f t="shared" si="8"/>
+        <v>24</v>
+      </c>
+      <c r="J25" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>21</v>
+      </c>
+      <c r="K25" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve"> 9 </v>
+      </c>
+      <c r="L25" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve"> 11.250</v>
+      </c>
+      <c r="M25" s="2" t="str">
+        <f t="shared" si="10"/>
+        <v>N</v>
+      </c>
+      <c r="N25" s="2" t="str">
+        <f t="shared" si="4"/>
+        <v>101</v>
+      </c>
+      <c r="O25" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v xml:space="preserve"> 41 </v>
+      </c>
+      <c r="P25" s="2" t="str">
+        <f t="shared" si="6"/>
+        <v xml:space="preserve"> 22.501</v>
+      </c>
+      <c r="Q25" s="2" t="str">
+        <f t="shared" si="7"/>
+        <v>W</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" s="2" t="s">
         <v>130</v>
       </c>
@@ -2625,8 +3604,44 @@
       <c r="F26" s="2" t="s">
         <v>135</v>
       </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="H26" s="2">
+        <f t="shared" si="8"/>
+        <v>25</v>
+      </c>
+      <c r="J26" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>22</v>
+      </c>
+      <c r="K26" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve"> 53</v>
+      </c>
+      <c r="L26" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve"> 44.563</v>
+      </c>
+      <c r="M26" s="2" t="str">
+        <f t="shared" si="10"/>
+        <v>S</v>
+      </c>
+      <c r="N26" s="2" t="str">
+        <f t="shared" si="4"/>
+        <v>43</v>
+      </c>
+      <c r="O26" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v xml:space="preserve"> 13</v>
+      </c>
+      <c r="P26" s="2" t="str">
+        <f t="shared" si="6"/>
+        <v xml:space="preserve"> 27.407</v>
+      </c>
+      <c r="Q26" s="2" t="str">
+        <f t="shared" si="7"/>
+        <v>W</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A27" s="2" t="s">
         <v>136</v>
       </c>
@@ -2645,8 +3660,44 @@
       <c r="F27" s="2" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="H27" s="2">
+        <f t="shared" si="8"/>
+        <v>26</v>
+      </c>
+      <c r="J27" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>25</v>
+      </c>
+      <c r="K27" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve"> 15</v>
+      </c>
+      <c r="L27" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve"> 13.417</v>
+      </c>
+      <c r="M27" s="2" t="str">
+        <f t="shared" si="10"/>
+        <v>S</v>
+      </c>
+      <c r="N27" s="2" t="str">
+        <f t="shared" si="4"/>
+        <v>57</v>
+      </c>
+      <c r="O27" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v xml:space="preserve"> 35</v>
+      </c>
+      <c r="P27" s="2" t="str">
+        <f t="shared" si="6"/>
+        <v xml:space="preserve"> 4.426 </v>
+      </c>
+      <c r="Q27" s="2" t="str">
+        <f t="shared" si="7"/>
+        <v>W</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="2" t="s">
         <v>142</v>
       </c>
@@ -2665,8 +3716,44 @@
       <c r="F28" s="2" t="s">
         <v>147</v>
       </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="H28" s="2">
+        <f t="shared" si="8"/>
+        <v>27</v>
+      </c>
+      <c r="J28" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>27</v>
+      </c>
+      <c r="K28" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve"> 59</v>
+      </c>
+      <c r="L28" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve"> 19.217</v>
+      </c>
+      <c r="M28" s="2" t="str">
+        <f t="shared" si="10"/>
+        <v>N</v>
+      </c>
+      <c r="N28" s="2" t="str">
+        <f t="shared" si="4"/>
+        <v>82</v>
+      </c>
+      <c r="O28" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v xml:space="preserve"> 32</v>
+      </c>
+      <c r="P28" s="2" t="str">
+        <f t="shared" si="6"/>
+        <v xml:space="preserve"> 50.021</v>
+      </c>
+      <c r="Q28" s="2" t="str">
+        <f t="shared" si="7"/>
+        <v>W</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A29" s="2" t="s">
         <v>148</v>
       </c>
@@ -2685,8 +3772,44 @@
       <c r="F29" s="2" t="s">
         <v>153</v>
       </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="H29" s="2">
+        <f t="shared" si="8"/>
+        <v>28</v>
+      </c>
+      <c r="J29" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>30</v>
+      </c>
+      <c r="K29" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve"> 22</v>
+      </c>
+      <c r="L29" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve"> 57.141</v>
+      </c>
+      <c r="M29" s="2" t="str">
+        <f t="shared" si="10"/>
+        <v>N</v>
+      </c>
+      <c r="N29" s="2" t="str">
+        <f t="shared" si="4"/>
+        <v>97</v>
+      </c>
+      <c r="O29" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v xml:space="preserve"> 44</v>
+      </c>
+      <c r="P29" s="2" t="str">
+        <f t="shared" si="6"/>
+        <v xml:space="preserve"> 41.926</v>
+      </c>
+      <c r="Q29" s="2" t="str">
+        <f t="shared" si="7"/>
+        <v>W</v>
+      </c>
+    </row>
+    <row r="30" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A30" s="2" t="s">
         <v>154</v>
       </c>
@@ -2705,8 +3828,44 @@
       <c r="F30" s="2" t="s">
         <v>159</v>
       </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="H30" s="2">
+        <f t="shared" si="8"/>
+        <v>29</v>
+      </c>
+      <c r="J30" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>30</v>
+      </c>
+      <c r="K30" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve"> 29</v>
+      </c>
+      <c r="L30" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve"> 10.300</v>
+      </c>
+      <c r="M30" s="2" t="str">
+        <f t="shared" si="10"/>
+        <v>N</v>
+      </c>
+      <c r="N30" s="2" t="str">
+        <f t="shared" si="4"/>
+        <v>86</v>
+      </c>
+      <c r="O30" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v xml:space="preserve"> 30</v>
+      </c>
+      <c r="P30" s="2" t="str">
+        <f t="shared" si="6"/>
+        <v xml:space="preserve"> 15.900</v>
+      </c>
+      <c r="Q30" s="2" t="str">
+        <f t="shared" si="7"/>
+        <v>W</v>
+      </c>
+    </row>
+    <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" s="2" t="s">
         <v>160</v>
       </c>
@@ -2725,8 +3884,44 @@
       <c r="F31" s="2" t="s">
         <v>163</v>
       </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="H31" s="2">
+        <f t="shared" si="8"/>
+        <v>30</v>
+      </c>
+      <c r="J31" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>30</v>
+      </c>
+      <c r="K31" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve"> 29</v>
+      </c>
+      <c r="L31" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve"> 10.315</v>
+      </c>
+      <c r="M31" s="2" t="str">
+        <f t="shared" si="10"/>
+        <v>N</v>
+      </c>
+      <c r="N31" s="2" t="str">
+        <f t="shared" si="4"/>
+        <v>86</v>
+      </c>
+      <c r="O31" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v xml:space="preserve"> 30</v>
+      </c>
+      <c r="P31" s="2" t="str">
+        <f t="shared" si="6"/>
+        <v xml:space="preserve"> 15.991</v>
+      </c>
+      <c r="Q31" s="2" t="str">
+        <f t="shared" si="7"/>
+        <v>W</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" s="2" t="s">
         <v>154</v>
       </c>
@@ -2745,8 +3940,44 @@
       <c r="F32" s="2" t="s">
         <v>166</v>
       </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="H32" s="2">
+        <f t="shared" si="8"/>
+        <v>31</v>
+      </c>
+      <c r="J32" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>30</v>
+      </c>
+      <c r="K32" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve"> 29</v>
+      </c>
+      <c r="L32" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve"> 10.317</v>
+      </c>
+      <c r="M32" s="2" t="str">
+        <f t="shared" si="10"/>
+        <v>N</v>
+      </c>
+      <c r="N32" s="2" t="str">
+        <f t="shared" si="4"/>
+        <v>86</v>
+      </c>
+      <c r="O32" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v xml:space="preserve"> 30</v>
+      </c>
+      <c r="P32" s="2" t="str">
+        <f t="shared" si="6"/>
+        <v xml:space="preserve"> 16.024</v>
+      </c>
+      <c r="Q32" s="2" t="str">
+        <f t="shared" si="7"/>
+        <v>W</v>
+      </c>
+    </row>
+    <row r="33" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A33" s="2" t="s">
         <v>154</v>
       </c>
@@ -2765,8 +3996,44 @@
       <c r="F33" s="2" t="s">
         <v>169</v>
       </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="H33" s="2">
+        <f t="shared" si="8"/>
+        <v>32</v>
+      </c>
+      <c r="J33" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>30</v>
+      </c>
+      <c r="K33" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve"> 29</v>
+      </c>
+      <c r="L33" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve"> 10.319</v>
+      </c>
+      <c r="M33" s="2" t="str">
+        <f t="shared" si="10"/>
+        <v>N</v>
+      </c>
+      <c r="N33" s="2" t="str">
+        <f t="shared" si="4"/>
+        <v>86</v>
+      </c>
+      <c r="O33" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v xml:space="preserve"> 30</v>
+      </c>
+      <c r="P33" s="2" t="str">
+        <f t="shared" si="6"/>
+        <v xml:space="preserve"> 16.034</v>
+      </c>
+      <c r="Q33" s="2" t="str">
+        <f t="shared" si="7"/>
+        <v>W</v>
+      </c>
+    </row>
+    <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" s="2" t="s">
         <v>154</v>
       </c>
@@ -2785,8 +4052,44 @@
       <c r="F34" s="2" t="s">
         <v>172</v>
       </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="H34" s="2">
+        <f t="shared" si="8"/>
+        <v>33</v>
+      </c>
+      <c r="J34" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>30</v>
+      </c>
+      <c r="K34" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve"> 29</v>
+      </c>
+      <c r="L34" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve"> 10.323</v>
+      </c>
+      <c r="M34" s="2" t="str">
+        <f t="shared" si="10"/>
+        <v>N</v>
+      </c>
+      <c r="N34" s="2" t="str">
+        <f t="shared" si="4"/>
+        <v>86</v>
+      </c>
+      <c r="O34" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v xml:space="preserve"> 30</v>
+      </c>
+      <c r="P34" s="2" t="str">
+        <f t="shared" si="6"/>
+        <v xml:space="preserve"> 16.040</v>
+      </c>
+      <c r="Q34" s="2" t="str">
+        <f t="shared" si="7"/>
+        <v>W</v>
+      </c>
+    </row>
+    <row r="35" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A35" s="2" t="s">
         <v>154</v>
       </c>
@@ -2805,8 +4108,44 @@
       <c r="F35" s="2" t="s">
         <v>175</v>
       </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="H35" s="2">
+        <f t="shared" si="8"/>
+        <v>34</v>
+      </c>
+      <c r="J35" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>30</v>
+      </c>
+      <c r="K35" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve"> 29</v>
+      </c>
+      <c r="L35" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve"> 10.324</v>
+      </c>
+      <c r="M35" s="2" t="str">
+        <f t="shared" si="10"/>
+        <v>N</v>
+      </c>
+      <c r="N35" s="2" t="str">
+        <f t="shared" si="4"/>
+        <v>86</v>
+      </c>
+      <c r="O35" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v xml:space="preserve"> 30</v>
+      </c>
+      <c r="P35" s="2" t="str">
+        <f t="shared" si="6"/>
+        <v xml:space="preserve"> 16.036</v>
+      </c>
+      <c r="Q35" s="2" t="str">
+        <f t="shared" si="7"/>
+        <v>W</v>
+      </c>
+    </row>
+    <row r="36" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A36" s="2" t="s">
         <v>154</v>
       </c>
@@ -2825,8 +4164,44 @@
       <c r="F36" s="2" t="s">
         <v>178</v>
       </c>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="H36" s="2">
+        <f t="shared" si="8"/>
+        <v>35</v>
+      </c>
+      <c r="J36" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>30</v>
+      </c>
+      <c r="K36" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve"> 29</v>
+      </c>
+      <c r="L36" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve"> 10.328</v>
+      </c>
+      <c r="M36" s="2" t="str">
+        <f t="shared" si="10"/>
+        <v>N</v>
+      </c>
+      <c r="N36" s="2" t="str">
+        <f t="shared" si="4"/>
+        <v>86</v>
+      </c>
+      <c r="O36" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v xml:space="preserve"> 30</v>
+      </c>
+      <c r="P36" s="2" t="str">
+        <f t="shared" si="6"/>
+        <v xml:space="preserve"> 16.037</v>
+      </c>
+      <c r="Q36" s="2" t="str">
+        <f t="shared" si="7"/>
+        <v>W</v>
+      </c>
+    </row>
+    <row r="37" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A37" s="2" t="s">
         <v>154</v>
       </c>
@@ -2845,8 +4220,44 @@
       <c r="F37" s="2" t="s">
         <v>181</v>
       </c>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="H37" s="2">
+        <f t="shared" si="8"/>
+        <v>36</v>
+      </c>
+      <c r="J37" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>30</v>
+      </c>
+      <c r="K37" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve"> 29</v>
+      </c>
+      <c r="L37" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve"> 10.330</v>
+      </c>
+      <c r="M37" s="2" t="str">
+        <f t="shared" si="10"/>
+        <v>N</v>
+      </c>
+      <c r="N37" s="2" t="str">
+        <f t="shared" si="4"/>
+        <v>86</v>
+      </c>
+      <c r="O37" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v xml:space="preserve"> 30</v>
+      </c>
+      <c r="P37" s="2" t="str">
+        <f t="shared" si="6"/>
+        <v xml:space="preserve"> 16.041</v>
+      </c>
+      <c r="Q37" s="2" t="str">
+        <f t="shared" si="7"/>
+        <v>W</v>
+      </c>
+    </row>
+    <row r="38" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A38" s="2" t="s">
         <v>154</v>
       </c>
@@ -2865,8 +4276,44 @@
       <c r="F38" s="2" t="s">
         <v>184</v>
       </c>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="H38" s="2">
+        <f t="shared" si="8"/>
+        <v>37</v>
+      </c>
+      <c r="J38" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>30</v>
+      </c>
+      <c r="K38" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve"> 29</v>
+      </c>
+      <c r="L38" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve"> 10.338</v>
+      </c>
+      <c r="M38" s="2" t="str">
+        <f t="shared" si="10"/>
+        <v>N</v>
+      </c>
+      <c r="N38" s="2" t="str">
+        <f t="shared" si="4"/>
+        <v>86</v>
+      </c>
+      <c r="O38" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v xml:space="preserve"> 30</v>
+      </c>
+      <c r="P38" s="2" t="str">
+        <f t="shared" si="6"/>
+        <v xml:space="preserve"> 16.006</v>
+      </c>
+      <c r="Q38" s="2" t="str">
+        <f t="shared" si="7"/>
+        <v>W</v>
+      </c>
+    </row>
+    <row r="39" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A39" s="2" t="s">
         <v>154</v>
       </c>
@@ -2885,8 +4332,44 @@
       <c r="F39" s="2" t="s">
         <v>188</v>
       </c>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="H39" s="2">
+        <f t="shared" si="8"/>
+        <v>38</v>
+      </c>
+      <c r="J39" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>30</v>
+      </c>
+      <c r="K39" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve"> 29</v>
+      </c>
+      <c r="L39" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve"> 9.683 </v>
+      </c>
+      <c r="M39" s="2" t="str">
+        <f t="shared" si="10"/>
+        <v>N</v>
+      </c>
+      <c r="N39" s="2" t="str">
+        <f t="shared" si="4"/>
+        <v>86</v>
+      </c>
+      <c r="O39" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v xml:space="preserve"> 30</v>
+      </c>
+      <c r="P39" s="2" t="str">
+        <f t="shared" si="6"/>
+        <v xml:space="preserve"> 15.312</v>
+      </c>
+      <c r="Q39" s="2" t="str">
+        <f t="shared" si="7"/>
+        <v>W</v>
+      </c>
+    </row>
+    <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" s="2" t="s">
         <v>154</v>
       </c>
@@ -2905,8 +4388,44 @@
       <c r="F40" s="2" t="s">
         <v>191</v>
       </c>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="H40" s="2">
+        <f t="shared" si="8"/>
+        <v>39</v>
+      </c>
+      <c r="J40" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>30</v>
+      </c>
+      <c r="K40" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve"> 29</v>
+      </c>
+      <c r="L40" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve"> 9.723 </v>
+      </c>
+      <c r="M40" s="2" t="str">
+        <f t="shared" si="10"/>
+        <v>N</v>
+      </c>
+      <c r="N40" s="2" t="str">
+        <f t="shared" si="4"/>
+        <v>86</v>
+      </c>
+      <c r="O40" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v xml:space="preserve"> 30</v>
+      </c>
+      <c r="P40" s="2" t="str">
+        <f t="shared" si="6"/>
+        <v xml:space="preserve"> 15.409</v>
+      </c>
+      <c r="Q40" s="2" t="str">
+        <f t="shared" si="7"/>
+        <v>W</v>
+      </c>
+    </row>
+    <row r="41" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A41" s="2" t="s">
         <v>154</v>
       </c>
@@ -2925,8 +4444,44 @@
       <c r="F41" s="2" t="s">
         <v>194</v>
       </c>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="H41" s="2">
+        <f t="shared" si="8"/>
+        <v>40</v>
+      </c>
+      <c r="J41" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>30</v>
+      </c>
+      <c r="K41" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve"> 29</v>
+      </c>
+      <c r="L41" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve"> 9.727 </v>
+      </c>
+      <c r="M41" s="2" t="str">
+        <f t="shared" si="10"/>
+        <v>N</v>
+      </c>
+      <c r="N41" s="2" t="str">
+        <f t="shared" si="4"/>
+        <v>86</v>
+      </c>
+      <c r="O41" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v xml:space="preserve"> 30</v>
+      </c>
+      <c r="P41" s="2" t="str">
+        <f t="shared" si="6"/>
+        <v xml:space="preserve"> 15.424</v>
+      </c>
+      <c r="Q41" s="2" t="str">
+        <f t="shared" si="7"/>
+        <v>W</v>
+      </c>
+    </row>
+    <row r="42" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A42" s="2" t="s">
         <v>154</v>
       </c>
@@ -2945,8 +4500,44 @@
       <c r="F42" s="2" t="s">
         <v>197</v>
       </c>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="H42" s="2">
+        <f t="shared" si="8"/>
+        <v>41</v>
+      </c>
+      <c r="J42" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>30</v>
+      </c>
+      <c r="K42" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve"> 29</v>
+      </c>
+      <c r="L42" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve"> 9.747 </v>
+      </c>
+      <c r="M42" s="2" t="str">
+        <f t="shared" si="10"/>
+        <v>N</v>
+      </c>
+      <c r="N42" s="2" t="str">
+        <f t="shared" si="4"/>
+        <v>86</v>
+      </c>
+      <c r="O42" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v xml:space="preserve"> 30</v>
+      </c>
+      <c r="P42" s="2" t="str">
+        <f t="shared" si="6"/>
+        <v xml:space="preserve"> 15.430</v>
+      </c>
+      <c r="Q42" s="2" t="str">
+        <f t="shared" si="7"/>
+        <v>W</v>
+      </c>
+    </row>
+    <row r="43" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A43" s="2" t="s">
         <v>198</v>
       </c>
@@ -2965,8 +4556,44 @@
       <c r="F43" s="2" t="s">
         <v>203</v>
       </c>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="H43" s="2">
+        <f t="shared" si="8"/>
+        <v>42</v>
+      </c>
+      <c r="J43" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>33</v>
+      </c>
+      <c r="K43" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve"> 14</v>
+      </c>
+      <c r="L43" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve"> 6.216 </v>
+      </c>
+      <c r="M43" s="2" t="str">
+        <f t="shared" si="10"/>
+        <v>N</v>
+      </c>
+      <c r="N43" s="2" t="str">
+        <f t="shared" si="4"/>
+        <v>87</v>
+      </c>
+      <c r="O43" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v xml:space="preserve"> 30</v>
+      </c>
+      <c r="P43" s="2" t="str">
+        <f t="shared" si="6"/>
+        <v xml:space="preserve"> 20.174</v>
+      </c>
+      <c r="Q43" s="2" t="str">
+        <f t="shared" si="7"/>
+        <v>W</v>
+      </c>
+    </row>
+    <row r="44" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A44" s="2" t="s">
         <v>204</v>
       </c>
@@ -2985,8 +4612,44 @@
       <c r="F44" s="2" t="s">
         <v>209</v>
       </c>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="H44" s="2">
+        <f t="shared" si="8"/>
+        <v>43</v>
+      </c>
+      <c r="J44" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>33</v>
+      </c>
+      <c r="K44" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve"> 42</v>
+      </c>
+      <c r="L44" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve"> 53.303</v>
+      </c>
+      <c r="M44" s="2" t="str">
+        <f t="shared" si="10"/>
+        <v>N</v>
+      </c>
+      <c r="N44" s="2" t="str">
+        <f t="shared" si="4"/>
+        <v>117</v>
+      </c>
+      <c r="O44" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v xml:space="preserve"> 50 </v>
+      </c>
+      <c r="P44" s="2" t="str">
+        <f t="shared" si="6"/>
+        <v xml:space="preserve"> 29.546</v>
+      </c>
+      <c r="Q44" s="2" t="str">
+        <f t="shared" si="7"/>
+        <v>W</v>
+      </c>
+    </row>
+    <row r="45" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A45" s="2" t="s">
         <v>210</v>
       </c>
@@ -3005,8 +4668,44 @@
       <c r="F45" s="2" t="s">
         <v>215</v>
       </c>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="H45" s="2">
+        <f t="shared" si="8"/>
+        <v>44</v>
+      </c>
+      <c r="J45" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>33</v>
+      </c>
+      <c r="K45" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve"> 47</v>
+      </c>
+      <c r="L45" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve"> 56.040</v>
+      </c>
+      <c r="M45" s="2" t="str">
+        <f t="shared" si="10"/>
+        <v>N</v>
+      </c>
+      <c r="N45" s="2" t="str">
+        <f t="shared" si="4"/>
+        <v>118</v>
+      </c>
+      <c r="O45" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v xml:space="preserve"> 0 m</v>
+      </c>
+      <c r="P45" s="2" t="str">
+        <f t="shared" si="6"/>
+        <v xml:space="preserve"> 17.597</v>
+      </c>
+      <c r="Q45" s="2" t="str">
+        <f t="shared" si="7"/>
+        <v>W</v>
+      </c>
+    </row>
+    <row r="46" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A46" s="2" t="s">
         <v>216</v>
       </c>
@@ -3025,8 +4724,44 @@
       <c r="F46" s="2" t="s">
         <v>221</v>
       </c>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="H46" s="2">
+        <f t="shared" si="8"/>
+        <v>45</v>
+      </c>
+      <c r="J46" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>33</v>
+      </c>
+      <c r="K46" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve"> 54</v>
+      </c>
+      <c r="L46" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve"> 26.011</v>
+      </c>
+      <c r="M46" s="2" t="str">
+        <f t="shared" si="10"/>
+        <v>N</v>
+      </c>
+      <c r="N46" s="2" t="str">
+        <f t="shared" si="4"/>
+        <v>118</v>
+      </c>
+      <c r="O46" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v xml:space="preserve"> 22 </v>
+      </c>
+      <c r="P46" s="2" t="str">
+        <f t="shared" si="6"/>
+        <v xml:space="preserve"> 49.839</v>
+      </c>
+      <c r="Q46" s="2" t="str">
+        <f t="shared" si="7"/>
+        <v>W</v>
+      </c>
+    </row>
+    <row r="47" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A47" s="2" t="s">
         <v>222</v>
       </c>
@@ -3045,8 +4780,44 @@
       <c r="F47" s="2" t="s">
         <v>147</v>
       </c>
-    </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="H47" s="2">
+        <f t="shared" si="8"/>
+        <v>46</v>
+      </c>
+      <c r="J47" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>33</v>
+      </c>
+      <c r="K47" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve"> 54</v>
+      </c>
+      <c r="L47" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve"> 26.011</v>
+      </c>
+      <c r="M47" s="2" t="str">
+        <f t="shared" si="10"/>
+        <v>N</v>
+      </c>
+      <c r="N47" s="2" t="str">
+        <f t="shared" si="4"/>
+        <v>118</v>
+      </c>
+      <c r="O47" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v xml:space="preserve"> 22 </v>
+      </c>
+      <c r="P47" s="2" t="str">
+        <f t="shared" si="6"/>
+        <v xml:space="preserve"> 49.816</v>
+      </c>
+      <c r="Q47" s="2" t="str">
+        <f t="shared" si="7"/>
+        <v>W</v>
+      </c>
+    </row>
+    <row r="48" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A48" s="2" t="s">
         <v>224</v>
       </c>
@@ -3065,8 +4836,44 @@
       <c r="F48" s="2" t="s">
         <v>229</v>
       </c>
-    </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="H48" s="2">
+        <f t="shared" si="8"/>
+        <v>47</v>
+      </c>
+      <c r="J48" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>33</v>
+      </c>
+      <c r="K48" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve"> 54</v>
+      </c>
+      <c r="L48" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve"> 52.780</v>
+      </c>
+      <c r="M48" s="2" t="str">
+        <f t="shared" si="10"/>
+        <v>N</v>
+      </c>
+      <c r="N48" s="2" t="str">
+        <f t="shared" si="4"/>
+        <v>118</v>
+      </c>
+      <c r="O48" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v xml:space="preserve"> 22 </v>
+      </c>
+      <c r="P48" s="2" t="str">
+        <f t="shared" si="6"/>
+        <v xml:space="preserve"> 46.610</v>
+      </c>
+      <c r="Q48" s="2" t="str">
+        <f t="shared" si="7"/>
+        <v>W</v>
+      </c>
+    </row>
+    <row r="49" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A49" s="2" t="s">
         <v>230</v>
       </c>
@@ -3085,8 +4892,44 @@
       <c r="F49" s="2" t="s">
         <v>235</v>
       </c>
-    </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="H49" s="2">
+        <f t="shared" si="8"/>
+        <v>48</v>
+      </c>
+      <c r="J49" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>34</v>
+      </c>
+      <c r="K49" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve"> 34</v>
+      </c>
+      <c r="L49" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve"> 35.814</v>
+      </c>
+      <c r="M49" s="2" t="str">
+        <f t="shared" si="10"/>
+        <v>S</v>
+      </c>
+      <c r="N49" s="2" t="str">
+        <f t="shared" si="4"/>
+        <v>58</v>
+      </c>
+      <c r="O49" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v xml:space="preserve"> 30</v>
+      </c>
+      <c r="P49" s="2" t="str">
+        <f t="shared" si="6"/>
+        <v xml:space="preserve"> 56.629</v>
+      </c>
+      <c r="Q49" s="2" t="str">
+        <f t="shared" si="7"/>
+        <v>W</v>
+      </c>
+    </row>
+    <row r="50" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A50" s="2" t="s">
         <v>236</v>
       </c>
@@ -3105,8 +4948,44 @@
       <c r="F50" s="2" t="s">
         <v>241</v>
       </c>
-    </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="H50" s="2">
+        <f t="shared" si="8"/>
+        <v>49</v>
+      </c>
+      <c r="J50" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>34</v>
+      </c>
+      <c r="K50" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve"> 53</v>
+      </c>
+      <c r="L50" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve"> 10.107</v>
+      </c>
+      <c r="M50" s="2" t="str">
+        <f t="shared" si="10"/>
+        <v>S</v>
+      </c>
+      <c r="N50" s="2" t="str">
+        <f t="shared" si="4"/>
+        <v>56</v>
+      </c>
+      <c r="O50" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v xml:space="preserve"> 11</v>
+      </c>
+      <c r="P50" s="2" t="str">
+        <f t="shared" si="6"/>
+        <v xml:space="preserve"> 41.503</v>
+      </c>
+      <c r="Q50" s="2" t="str">
+        <f t="shared" si="7"/>
+        <v>W</v>
+      </c>
+    </row>
+    <row r="51" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A51" s="2" t="s">
         <v>242</v>
       </c>
@@ -3125,8 +5004,44 @@
       <c r="F51" s="2" t="s">
         <v>247</v>
       </c>
-    </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="H51" s="2">
+        <f t="shared" si="8"/>
+        <v>50</v>
+      </c>
+      <c r="J51" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>34</v>
+      </c>
+      <c r="K51" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve"> 57</v>
+      </c>
+      <c r="L51" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve"> 0.000 </v>
+      </c>
+      <c r="M51" s="2" t="str">
+        <f t="shared" si="10"/>
+        <v>S</v>
+      </c>
+      <c r="N51" s="2" t="str">
+        <f t="shared" si="4"/>
+        <v>58</v>
+      </c>
+      <c r="O51" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v xml:space="preserve"> 51</v>
+      </c>
+      <c r="P51" s="2" t="str">
+        <f t="shared" si="6"/>
+        <v xml:space="preserve"> 0.000 </v>
+      </c>
+      <c r="Q51" s="2" t="str">
+        <f t="shared" si="7"/>
+        <v>W</v>
+      </c>
+    </row>
+    <row r="52" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A52" s="2" t="s">
         <v>248</v>
       </c>
@@ -3145,8 +5060,44 @@
       <c r="F52" s="2" t="s">
         <v>253</v>
       </c>
-    </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="H52" s="2">
+        <f t="shared" si="8"/>
+        <v>51</v>
+      </c>
+      <c r="J52" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>35</v>
+      </c>
+      <c r="K52" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve"> 39</v>
+      </c>
+      <c r="L52" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve"> 24.238</v>
+      </c>
+      <c r="M52" s="2" t="str">
+        <f t="shared" si="10"/>
+        <v>N</v>
+      </c>
+      <c r="N52" s="2" t="str">
+        <f t="shared" si="4"/>
+        <v>139</v>
+      </c>
+      <c r="O52" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v xml:space="preserve"> 48 </v>
+      </c>
+      <c r="P52" s="2" t="str">
+        <f t="shared" si="6"/>
+        <v xml:space="preserve"> 11.015</v>
+      </c>
+      <c r="Q52" s="2" t="str">
+        <f t="shared" si="7"/>
+        <v>E</v>
+      </c>
+    </row>
+    <row r="53" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A53" s="2" t="s">
         <v>254</v>
       </c>
@@ -3165,8 +5116,44 @@
       <c r="F53" s="2" t="s">
         <v>257</v>
       </c>
-    </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="H53" s="2">
+        <f t="shared" si="8"/>
+        <v>52</v>
+      </c>
+      <c r="J53" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>35</v>
+      </c>
+      <c r="K53" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve"> 39</v>
+      </c>
+      <c r="L53" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve"> 24.269</v>
+      </c>
+      <c r="M53" s="2" t="str">
+        <f t="shared" si="10"/>
+        <v>N</v>
+      </c>
+      <c r="N53" s="2" t="str">
+        <f t="shared" si="4"/>
+        <v>139</v>
+      </c>
+      <c r="O53" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v xml:space="preserve"> 48 </v>
+      </c>
+      <c r="P53" s="2" t="str">
+        <f t="shared" si="6"/>
+        <v xml:space="preserve"> 10.969</v>
+      </c>
+      <c r="Q53" s="2" t="str">
+        <f t="shared" si="7"/>
+        <v>E</v>
+      </c>
+    </row>
+    <row r="54" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A54" s="2" t="s">
         <v>258</v>
       </c>
@@ -3185,8 +5172,44 @@
       <c r="F54" s="2" t="s">
         <v>263</v>
       </c>
-    </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="H54" s="2">
+        <f t="shared" si="8"/>
+        <v>53</v>
+      </c>
+      <c r="J54" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>36</v>
+      </c>
+      <c r="K54" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve"> 49</v>
+      </c>
+      <c r="L54" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve"> 49.945</v>
+      </c>
+      <c r="M54" s="2" t="str">
+        <f t="shared" si="10"/>
+        <v>S</v>
+      </c>
+      <c r="N54" s="2" t="str">
+        <f t="shared" si="4"/>
+        <v>73</v>
+      </c>
+      <c r="O54" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v xml:space="preserve"> 2 </v>
+      </c>
+      <c r="P54" s="2" t="str">
+        <f t="shared" si="6"/>
+        <v xml:space="preserve"> 13.603</v>
+      </c>
+      <c r="Q54" s="2" t="str">
+        <f t="shared" si="7"/>
+        <v>W</v>
+      </c>
+    </row>
+    <row r="55" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A55" s="2" t="s">
         <v>264</v>
       </c>
@@ -3205,8 +5228,44 @@
       <c r="F55" s="2" t="s">
         <v>269</v>
       </c>
-    </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="H55" s="2">
+        <f t="shared" si="8"/>
+        <v>54</v>
+      </c>
+      <c r="J55" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>39</v>
+      </c>
+      <c r="K55" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve"> 11</v>
+      </c>
+      <c r="L55" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve"> 8.173 </v>
+      </c>
+      <c r="M55" s="2" t="str">
+        <f t="shared" si="10"/>
+        <v>N</v>
+      </c>
+      <c r="N55" s="2" t="str">
+        <f t="shared" si="4"/>
+        <v>76</v>
+      </c>
+      <c r="O55" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v xml:space="preserve"> 41</v>
+      </c>
+      <c r="P55" s="2" t="str">
+        <f t="shared" si="6"/>
+        <v xml:space="preserve"> 11.401</v>
+      </c>
+      <c r="Q55" s="2" t="str">
+        <f t="shared" si="7"/>
+        <v>W</v>
+      </c>
+    </row>
+    <row r="56" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A56" s="2" t="s">
         <v>270</v>
       </c>
@@ -3225,8 +5284,44 @@
       <c r="F56" s="2" t="s">
         <v>275</v>
       </c>
-    </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="H56" s="2">
+        <f t="shared" si="8"/>
+        <v>55</v>
+      </c>
+      <c r="J56" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>39</v>
+      </c>
+      <c r="K56" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve"> 12</v>
+      </c>
+      <c r="L56" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve"> 7.501 </v>
+      </c>
+      <c r="M56" s="2" t="str">
+        <f t="shared" si="10"/>
+        <v>N</v>
+      </c>
+      <c r="N56" s="2" t="str">
+        <f t="shared" si="4"/>
+        <v>77</v>
+      </c>
+      <c r="O56" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v xml:space="preserve"> 15</v>
+      </c>
+      <c r="P56" s="2" t="str">
+        <f t="shared" si="6"/>
+        <v xml:space="preserve"> 47.386</v>
+      </c>
+      <c r="Q56" s="2" t="str">
+        <f t="shared" si="7"/>
+        <v>W</v>
+      </c>
+    </row>
+    <row r="57" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A57" s="2" t="s">
         <v>276</v>
       </c>
@@ -3245,8 +5340,44 @@
       <c r="F57" s="2" t="s">
         <v>281</v>
       </c>
-    </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="H57" s="2">
+        <f t="shared" si="8"/>
+        <v>56</v>
+      </c>
+      <c r="J57" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>39</v>
+      </c>
+      <c r="K57" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve"> 57</v>
+      </c>
+      <c r="L57" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve"> 56.154</v>
+      </c>
+      <c r="M57" s="2" t="str">
+        <f t="shared" si="10"/>
+        <v>N</v>
+      </c>
+      <c r="N57" s="2" t="str">
+        <f t="shared" si="4"/>
+        <v>105</v>
+      </c>
+      <c r="O57" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v xml:space="preserve"> 6 m</v>
+      </c>
+      <c r="P57" s="2" t="str">
+        <f t="shared" si="6"/>
+        <v xml:space="preserve"> 51.677</v>
+      </c>
+      <c r="Q57" s="2" t="str">
+        <f t="shared" si="7"/>
+        <v>W</v>
+      </c>
+    </row>
+    <row r="58" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A58" s="2" t="s">
         <v>118</v>
       </c>
@@ -3265,8 +5396,44 @@
       <c r="F58" s="2" t="s">
         <v>286</v>
       </c>
-    </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="H58" s="2">
+        <f t="shared" si="8"/>
+        <v>57</v>
+      </c>
+      <c r="J58" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>39</v>
+      </c>
+      <c r="K58" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve"> 59</v>
+      </c>
+      <c r="L58" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve"> 43.32 </v>
+      </c>
+      <c r="M58" s="2" t="str">
+        <f t="shared" si="10"/>
+        <v>N</v>
+      </c>
+      <c r="N58" s="2" t="str">
+        <f t="shared" si="4"/>
+        <v>105</v>
+      </c>
+      <c r="O58" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v xml:space="preserve"> 15 </v>
+      </c>
+      <c r="P58" s="2" t="str">
+        <f t="shared" si="6"/>
+        <v xml:space="preserve"> 43.91 </v>
+      </c>
+      <c r="Q58" s="2" t="str">
+        <f t="shared" si="7"/>
+        <v>W</v>
+      </c>
+    </row>
+    <row r="59" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A59" s="2" t="s">
         <v>118</v>
       </c>
@@ -3285,8 +5452,44 @@
       <c r="F59" s="2" t="s">
         <v>289</v>
       </c>
-    </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="H59" s="2">
+        <f t="shared" si="8"/>
+        <v>58</v>
+      </c>
+      <c r="J59" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>39</v>
+      </c>
+      <c r="K59" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve"> 59</v>
+      </c>
+      <c r="L59" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve"> 43.493</v>
+      </c>
+      <c r="M59" s="2" t="str">
+        <f t="shared" si="10"/>
+        <v>N</v>
+      </c>
+      <c r="N59" s="2" t="str">
+        <f t="shared" si="4"/>
+        <v>105</v>
+      </c>
+      <c r="O59" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v xml:space="preserve"> 15 </v>
+      </c>
+      <c r="P59" s="2" t="str">
+        <f t="shared" si="6"/>
+        <v xml:space="preserve"> 44.114</v>
+      </c>
+      <c r="Q59" s="2" t="str">
+        <f t="shared" si="7"/>
+        <v>W</v>
+      </c>
+    </row>
+    <row r="60" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A60" s="2" t="s">
         <v>118</v>
       </c>
@@ -3305,8 +5508,44 @@
       <c r="F60" s="2" t="s">
         <v>292</v>
       </c>
-    </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="H60" s="2">
+        <f t="shared" si="8"/>
+        <v>59</v>
+      </c>
+      <c r="J60" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>39</v>
+      </c>
+      <c r="K60" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve"> 59</v>
+      </c>
+      <c r="L60" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve"> 43.494</v>
+      </c>
+      <c r="M60" s="2" t="str">
+        <f t="shared" si="10"/>
+        <v>N</v>
+      </c>
+      <c r="N60" s="2" t="str">
+        <f t="shared" si="4"/>
+        <v>105</v>
+      </c>
+      <c r="O60" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v xml:space="preserve"> 15 </v>
+      </c>
+      <c r="P60" s="2" t="str">
+        <f t="shared" si="6"/>
+        <v xml:space="preserve"> 44.108</v>
+      </c>
+      <c r="Q60" s="2" t="str">
+        <f t="shared" si="7"/>
+        <v>W</v>
+      </c>
+    </row>
+    <row r="61" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A61" s="2" t="s">
         <v>118</v>
       </c>
@@ -3325,8 +5564,44 @@
       <c r="F61" s="2" t="s">
         <v>296</v>
       </c>
-    </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="H61" s="2">
+        <f t="shared" si="8"/>
+        <v>60</v>
+      </c>
+      <c r="J61" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>39</v>
+      </c>
+      <c r="K61" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve"> 59</v>
+      </c>
+      <c r="L61" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve"> 43.640</v>
+      </c>
+      <c r="M61" s="2" t="str">
+        <f t="shared" si="10"/>
+        <v>N</v>
+      </c>
+      <c r="N61" s="2" t="str">
+        <f t="shared" si="4"/>
+        <v>105</v>
+      </c>
+      <c r="O61" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v xml:space="preserve"> 15 </v>
+      </c>
+      <c r="P61" s="2" t="str">
+        <f t="shared" si="6"/>
+        <v xml:space="preserve"> 44.430</v>
+      </c>
+      <c r="Q61" s="2" t="str">
+        <f t="shared" si="7"/>
+        <v>W</v>
+      </c>
+    </row>
+    <row r="62" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A62" s="2" t="s">
         <v>118</v>
       </c>
@@ -3345,8 +5620,44 @@
       <c r="F62" s="2" t="s">
         <v>300</v>
       </c>
-    </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="H62" s="2">
+        <f t="shared" si="8"/>
+        <v>61</v>
+      </c>
+      <c r="J62" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>39</v>
+      </c>
+      <c r="K62" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve"> 59</v>
+      </c>
+      <c r="L62" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve"> 43.689</v>
+      </c>
+      <c r="M62" s="2" t="str">
+        <f t="shared" si="10"/>
+        <v>N</v>
+      </c>
+      <c r="N62" s="2" t="str">
+        <f t="shared" si="4"/>
+        <v>105</v>
+      </c>
+      <c r="O62" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v xml:space="preserve"> 15 </v>
+      </c>
+      <c r="P62" s="2" t="str">
+        <f t="shared" si="6"/>
+        <v xml:space="preserve"> 44.552</v>
+      </c>
+      <c r="Q62" s="2" t="str">
+        <f t="shared" si="7"/>
+        <v>W</v>
+      </c>
+    </row>
+    <row r="63" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A63" s="2" t="s">
         <v>118</v>
       </c>
@@ -3365,8 +5676,44 @@
       <c r="F63" s="2" t="s">
         <v>303</v>
       </c>
-    </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="H63" s="2">
+        <f t="shared" si="8"/>
+        <v>62</v>
+      </c>
+      <c r="J63" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>39</v>
+      </c>
+      <c r="K63" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve"> 59</v>
+      </c>
+      <c r="L63" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve"> 43.702</v>
+      </c>
+      <c r="M63" s="2" t="str">
+        <f t="shared" si="10"/>
+        <v>N</v>
+      </c>
+      <c r="N63" s="2" t="str">
+        <f t="shared" si="4"/>
+        <v>105</v>
+      </c>
+      <c r="O63" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v xml:space="preserve"> 15 </v>
+      </c>
+      <c r="P63" s="2" t="str">
+        <f t="shared" si="6"/>
+        <v xml:space="preserve"> 44.529</v>
+      </c>
+      <c r="Q63" s="2" t="str">
+        <f t="shared" si="7"/>
+        <v>W</v>
+      </c>
+    </row>
+    <row r="64" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A64" s="2" t="s">
         <v>118</v>
       </c>
@@ -3385,8 +5732,44 @@
       <c r="F64" s="2" t="s">
         <v>306</v>
       </c>
-    </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="H64" s="2">
+        <f t="shared" si="8"/>
+        <v>63</v>
+      </c>
+      <c r="J64" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>39</v>
+      </c>
+      <c r="K64" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve"> 59</v>
+      </c>
+      <c r="L64" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve"> 43.750</v>
+      </c>
+      <c r="M64" s="2" t="str">
+        <f t="shared" si="10"/>
+        <v>N</v>
+      </c>
+      <c r="N64" s="2" t="str">
+        <f t="shared" si="4"/>
+        <v>105</v>
+      </c>
+      <c r="O64" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v xml:space="preserve"> 15 </v>
+      </c>
+      <c r="P64" s="2" t="str">
+        <f t="shared" si="6"/>
+        <v xml:space="preserve"> 44.580</v>
+      </c>
+      <c r="Q64" s="2" t="str">
+        <f t="shared" si="7"/>
+        <v>W</v>
+      </c>
+    </row>
+    <row r="65" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A65" s="2" t="s">
         <v>307</v>
       </c>
@@ -3405,8 +5788,44 @@
       <c r="F65" s="2" t="s">
         <v>310</v>
       </c>
-    </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="H65" s="2">
+        <f t="shared" si="8"/>
+        <v>64</v>
+      </c>
+      <c r="J65" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>39</v>
+      </c>
+      <c r="K65" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve"> 59</v>
+      </c>
+      <c r="L65" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve"> 43.764</v>
+      </c>
+      <c r="M65" s="2" t="str">
+        <f t="shared" si="10"/>
+        <v>N</v>
+      </c>
+      <c r="N65" s="2" t="str">
+        <f t="shared" si="4"/>
+        <v>105</v>
+      </c>
+      <c r="O65" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v xml:space="preserve"> 15 </v>
+      </c>
+      <c r="P65" s="2" t="str">
+        <f t="shared" si="6"/>
+        <v xml:space="preserve"> 44.439</v>
+      </c>
+      <c r="Q65" s="2" t="str">
+        <f t="shared" si="7"/>
+        <v>W</v>
+      </c>
+    </row>
+    <row r="66" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A66" s="2" t="s">
         <v>307</v>
       </c>
@@ -3425,8 +5844,44 @@
       <c r="F66" s="2" t="s">
         <v>313</v>
       </c>
-    </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="H66" s="2">
+        <f t="shared" si="8"/>
+        <v>65</v>
+      </c>
+      <c r="J66" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>39</v>
+      </c>
+      <c r="K66" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve"> 59</v>
+      </c>
+      <c r="L66" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve"> 43.766</v>
+      </c>
+      <c r="M66" s="2" t="str">
+        <f t="shared" si="10"/>
+        <v>N</v>
+      </c>
+      <c r="N66" s="2" t="str">
+        <f t="shared" si="4"/>
+        <v>105</v>
+      </c>
+      <c r="O66" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v xml:space="preserve"> 15 </v>
+      </c>
+      <c r="P66" s="2" t="str">
+        <f t="shared" si="6"/>
+        <v xml:space="preserve"> 44.487</v>
+      </c>
+      <c r="Q66" s="2" t="str">
+        <f t="shared" si="7"/>
+        <v>W</v>
+      </c>
+    </row>
+    <row r="67" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A67" s="2" t="s">
         <v>314</v>
       </c>
@@ -3445,8 +5900,44 @@
       <c r="F67" s="2" t="s">
         <v>318</v>
       </c>
-    </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="H67" s="2">
+        <f t="shared" si="8"/>
+        <v>66</v>
+      </c>
+      <c r="J67" s="2" t="str">
+        <f t="shared" ref="J67:J121" si="11">LEFT(B67,SEARCH("°",B67,1) -1)</f>
+        <v>39</v>
+      </c>
+      <c r="K67" s="2" t="str">
+        <f t="shared" ref="K67:K121" si="12">MID(B67,SEARCH("°",B67)+1,SEARCH(" ",B67)-1)</f>
+        <v xml:space="preserve"> 59</v>
+      </c>
+      <c r="L67" s="2" t="str">
+        <f t="shared" ref="L67:L121" si="13">MID(B67,SEARCH("min",B67)+3,7)</f>
+        <v xml:space="preserve"> 44.282</v>
+      </c>
+      <c r="M67" s="2" t="str">
+        <f t="shared" si="10"/>
+        <v>N</v>
+      </c>
+      <c r="N67" s="2" t="str">
+        <f t="shared" ref="N67:N121" si="14">LEFT(C67,SEARCH("°",C67,1) -1)</f>
+        <v>105</v>
+      </c>
+      <c r="O67" s="2" t="str">
+        <f t="shared" ref="O67:O121" si="15">MID(C67,SEARCH("°",C67)+1,SEARCH(" ",C67)-1)</f>
+        <v xml:space="preserve"> 15 </v>
+      </c>
+      <c r="P67" s="2" t="str">
+        <f t="shared" ref="P67:P121" si="16">MID(C67,SEARCH("min",C67)+3,7)</f>
+        <v xml:space="preserve"> 43.250</v>
+      </c>
+      <c r="Q67" s="2" t="str">
+        <f t="shared" ref="Q67:Q121" si="17">RIGHT(C67,1)</f>
+        <v>W</v>
+      </c>
+    </row>
+    <row r="68" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A68" s="2" t="s">
         <v>319</v>
       </c>
@@ -3465,8 +5956,44 @@
       <c r="F68" s="2" t="s">
         <v>322</v>
       </c>
-    </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="H68" s="2">
+        <f t="shared" ref="H68:H121" si="18">H67+1</f>
+        <v>67</v>
+      </c>
+      <c r="J68" s="2" t="str">
+        <f t="shared" si="11"/>
+        <v>39</v>
+      </c>
+      <c r="K68" s="2" t="str">
+        <f t="shared" si="12"/>
+        <v xml:space="preserve"> 59</v>
+      </c>
+      <c r="L68" s="2" t="str">
+        <f t="shared" si="13"/>
+        <v xml:space="preserve"> 44.284</v>
+      </c>
+      <c r="M68" s="2" t="str">
+        <f t="shared" si="10"/>
+        <v>N</v>
+      </c>
+      <c r="N68" s="2" t="str">
+        <f t="shared" si="14"/>
+        <v>105</v>
+      </c>
+      <c r="O68" s="2" t="str">
+        <f t="shared" si="15"/>
+        <v xml:space="preserve"> 15 </v>
+      </c>
+      <c r="P68" s="2" t="str">
+        <f t="shared" si="16"/>
+        <v xml:space="preserve"> 43.202</v>
+      </c>
+      <c r="Q68" s="2" t="str">
+        <f t="shared" si="17"/>
+        <v>W</v>
+      </c>
+    </row>
+    <row r="69" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A69" s="2" t="s">
         <v>118</v>
       </c>
@@ -3485,8 +6012,44 @@
       <c r="F69" s="2" t="s">
         <v>324</v>
       </c>
-    </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="H69" s="2">
+        <f t="shared" si="18"/>
+        <v>68</v>
+      </c>
+      <c r="J69" s="2" t="str">
+        <f t="shared" si="11"/>
+        <v>39</v>
+      </c>
+      <c r="K69" s="2" t="str">
+        <f t="shared" si="12"/>
+        <v xml:space="preserve"> 59</v>
+      </c>
+      <c r="L69" s="2" t="str">
+        <f t="shared" si="13"/>
+        <v xml:space="preserve"> 44.284</v>
+      </c>
+      <c r="M69" s="2" t="str">
+        <f t="shared" si="10"/>
+        <v>N</v>
+      </c>
+      <c r="N69" s="2" t="str">
+        <f t="shared" si="14"/>
+        <v>105</v>
+      </c>
+      <c r="O69" s="2" t="str">
+        <f t="shared" si="15"/>
+        <v xml:space="preserve"> 15 </v>
+      </c>
+      <c r="P69" s="2" t="str">
+        <f t="shared" si="16"/>
+        <v xml:space="preserve"> 43.351</v>
+      </c>
+      <c r="Q69" s="2" t="str">
+        <f t="shared" si="17"/>
+        <v>W</v>
+      </c>
+    </row>
+    <row r="70" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A70" s="2" t="s">
         <v>325</v>
       </c>
@@ -3505,8 +6068,44 @@
       <c r="F70" s="2" t="s">
         <v>322</v>
       </c>
-    </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="H70" s="2">
+        <f t="shared" si="18"/>
+        <v>69</v>
+      </c>
+      <c r="J70" s="2" t="str">
+        <f t="shared" si="11"/>
+        <v>39</v>
+      </c>
+      <c r="K70" s="2" t="str">
+        <f t="shared" si="12"/>
+        <v xml:space="preserve"> 59</v>
+      </c>
+      <c r="L70" s="2" t="str">
+        <f t="shared" si="13"/>
+        <v xml:space="preserve"> 44.285</v>
+      </c>
+      <c r="M70" s="2" t="str">
+        <f t="shared" si="10"/>
+        <v>N</v>
+      </c>
+      <c r="N70" s="2" t="str">
+        <f t="shared" si="14"/>
+        <v>105</v>
+      </c>
+      <c r="O70" s="2" t="str">
+        <f t="shared" si="15"/>
+        <v xml:space="preserve"> 15 </v>
+      </c>
+      <c r="P70" s="2" t="str">
+        <f t="shared" si="16"/>
+        <v xml:space="preserve"> 43.202</v>
+      </c>
+      <c r="Q70" s="2" t="str">
+        <f t="shared" si="17"/>
+        <v>W</v>
+      </c>
+    </row>
+    <row r="71" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A71" s="2" t="s">
         <v>118</v>
       </c>
@@ -3525,8 +6124,44 @@
       <c r="F71" s="2" t="s">
         <v>329</v>
       </c>
-    </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="H71" s="2">
+        <f t="shared" si="18"/>
+        <v>70</v>
+      </c>
+      <c r="J71" s="2" t="str">
+        <f t="shared" si="11"/>
+        <v>39</v>
+      </c>
+      <c r="K71" s="2" t="str">
+        <f t="shared" si="12"/>
+        <v xml:space="preserve"> 59</v>
+      </c>
+      <c r="L71" s="2" t="str">
+        <f t="shared" si="13"/>
+        <v xml:space="preserve"> 44.49 </v>
+      </c>
+      <c r="M71" s="2" t="str">
+        <f t="shared" si="10"/>
+        <v>N</v>
+      </c>
+      <c r="N71" s="2" t="str">
+        <f t="shared" si="14"/>
+        <v>105</v>
+      </c>
+      <c r="O71" s="2" t="str">
+        <f t="shared" si="15"/>
+        <v xml:space="preserve"> 15 </v>
+      </c>
+      <c r="P71" s="2" t="str">
+        <f t="shared" si="16"/>
+        <v xml:space="preserve"> 43.41 </v>
+      </c>
+      <c r="Q71" s="2" t="str">
+        <f t="shared" si="17"/>
+        <v>W</v>
+      </c>
+    </row>
+    <row r="72" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A72" s="2" t="s">
         <v>118</v>
       </c>
@@ -3545,8 +6180,44 @@
       <c r="F72" s="2" t="s">
         <v>332</v>
       </c>
-    </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="H72" s="2">
+        <f t="shared" si="18"/>
+        <v>71</v>
+      </c>
+      <c r="J72" s="2" t="str">
+        <f t="shared" si="11"/>
+        <v>39</v>
+      </c>
+      <c r="K72" s="2" t="str">
+        <f t="shared" si="12"/>
+        <v xml:space="preserve"> 59</v>
+      </c>
+      <c r="L72" s="2" t="str">
+        <f t="shared" si="13"/>
+        <v xml:space="preserve"> 44.494</v>
+      </c>
+      <c r="M72" s="2" t="str">
+        <f t="shared" si="10"/>
+        <v>N</v>
+      </c>
+      <c r="N72" s="2" t="str">
+        <f t="shared" si="14"/>
+        <v>105</v>
+      </c>
+      <c r="O72" s="2" t="str">
+        <f t="shared" si="15"/>
+        <v xml:space="preserve"> 15 </v>
+      </c>
+      <c r="P72" s="2" t="str">
+        <f t="shared" si="16"/>
+        <v xml:space="preserve"> 43.409</v>
+      </c>
+      <c r="Q72" s="2" t="str">
+        <f t="shared" si="17"/>
+        <v>W</v>
+      </c>
+    </row>
+    <row r="73" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A73" s="2" t="s">
         <v>333</v>
       </c>
@@ -3565,8 +6236,44 @@
       <c r="F73" s="2" t="s">
         <v>337</v>
       </c>
-    </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="H73" s="2">
+        <f t="shared" si="18"/>
+        <v>72</v>
+      </c>
+      <c r="J73" s="2" t="str">
+        <f t="shared" si="11"/>
+        <v>39</v>
+      </c>
+      <c r="K73" s="2" t="str">
+        <f t="shared" si="12"/>
+        <v xml:space="preserve"> 59</v>
+      </c>
+      <c r="L73" s="2" t="str">
+        <f t="shared" si="13"/>
+        <v xml:space="preserve"> 44.544</v>
+      </c>
+      <c r="M73" s="2" t="str">
+        <f t="shared" si="10"/>
+        <v>N</v>
+      </c>
+      <c r="N73" s="2" t="str">
+        <f t="shared" si="14"/>
+        <v>105</v>
+      </c>
+      <c r="O73" s="2" t="str">
+        <f t="shared" si="15"/>
+        <v xml:space="preserve"> 15 </v>
+      </c>
+      <c r="P73" s="2" t="str">
+        <f t="shared" si="16"/>
+        <v xml:space="preserve"> 43.124</v>
+      </c>
+      <c r="Q73" s="2" t="str">
+        <f t="shared" si="17"/>
+        <v>W</v>
+      </c>
+    </row>
+    <row r="74" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A74" s="2" t="s">
         <v>338</v>
       </c>
@@ -3585,8 +6292,44 @@
       <c r="F74" s="2" t="s">
         <v>337</v>
       </c>
-    </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="H74" s="2">
+        <f t="shared" si="18"/>
+        <v>73</v>
+      </c>
+      <c r="J74" s="2" t="str">
+        <f t="shared" si="11"/>
+        <v>39</v>
+      </c>
+      <c r="K74" s="2" t="str">
+        <f t="shared" si="12"/>
+        <v xml:space="preserve"> 59</v>
+      </c>
+      <c r="L74" s="2" t="str">
+        <f t="shared" si="13"/>
+        <v xml:space="preserve"> 44.544</v>
+      </c>
+      <c r="M74" s="2" t="str">
+        <f t="shared" si="10"/>
+        <v>N</v>
+      </c>
+      <c r="N74" s="2" t="str">
+        <f t="shared" si="14"/>
+        <v>105</v>
+      </c>
+      <c r="O74" s="2" t="str">
+        <f t="shared" si="15"/>
+        <v xml:space="preserve"> 15 </v>
+      </c>
+      <c r="P74" s="2" t="str">
+        <f t="shared" si="16"/>
+        <v xml:space="preserve"> 43.124</v>
+      </c>
+      <c r="Q74" s="2" t="str">
+        <f t="shared" si="17"/>
+        <v>E</v>
+      </c>
+    </row>
+    <row r="75" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A75" s="2" t="s">
         <v>198</v>
       </c>
@@ -3605,8 +6348,44 @@
       <c r="F75" s="2" t="s">
         <v>337</v>
       </c>
-    </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="H75" s="2">
+        <f t="shared" si="18"/>
+        <v>74</v>
+      </c>
+      <c r="J75" s="2" t="str">
+        <f t="shared" si="11"/>
+        <v>39</v>
+      </c>
+      <c r="K75" s="2" t="str">
+        <f t="shared" si="12"/>
+        <v xml:space="preserve"> 59</v>
+      </c>
+      <c r="L75" s="2" t="str">
+        <f t="shared" si="13"/>
+        <v xml:space="preserve"> 44.544</v>
+      </c>
+      <c r="M75" s="2" t="str">
+        <f t="shared" ref="M75:M121" si="19">RIGHT(B75,1)</f>
+        <v>N</v>
+      </c>
+      <c r="N75" s="2" t="str">
+        <f t="shared" si="14"/>
+        <v>15</v>
+      </c>
+      <c r="O75" s="2" t="str">
+        <f t="shared" si="15"/>
+        <v xml:space="preserve"> 15</v>
+      </c>
+      <c r="P75" s="2" t="str">
+        <f t="shared" si="16"/>
+        <v xml:space="preserve"> 43.124</v>
+      </c>
+      <c r="Q75" s="2" t="str">
+        <f t="shared" si="17"/>
+        <v>W</v>
+      </c>
+    </row>
+    <row r="76" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A76" s="2" t="s">
         <v>343</v>
       </c>
@@ -3625,8 +6404,44 @@
       <c r="F76" s="2" t="s">
         <v>346</v>
       </c>
-    </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="H76" s="2">
+        <f t="shared" si="18"/>
+        <v>75</v>
+      </c>
+      <c r="J76" s="2" t="str">
+        <f t="shared" si="11"/>
+        <v>39</v>
+      </c>
+      <c r="K76" s="2" t="str">
+        <f t="shared" si="12"/>
+        <v xml:space="preserve"> 59</v>
+      </c>
+      <c r="L76" s="2" t="str">
+        <f t="shared" si="13"/>
+        <v xml:space="preserve"> 44.590</v>
+      </c>
+      <c r="M76" s="2" t="str">
+        <f t="shared" si="19"/>
+        <v>N</v>
+      </c>
+      <c r="N76" s="2" t="str">
+        <f t="shared" si="14"/>
+        <v>105</v>
+      </c>
+      <c r="O76" s="2" t="str">
+        <f t="shared" si="15"/>
+        <v xml:space="preserve"> 15 </v>
+      </c>
+      <c r="P76" s="2" t="str">
+        <f t="shared" si="16"/>
+        <v xml:space="preserve"> 43.077</v>
+      </c>
+      <c r="Q76" s="2" t="str">
+        <f t="shared" si="17"/>
+        <v>W</v>
+      </c>
+    </row>
+    <row r="77" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A77" s="2" t="s">
         <v>347</v>
       </c>
@@ -3645,8 +6460,44 @@
       <c r="F77" s="2" t="s">
         <v>346</v>
       </c>
-    </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="H77" s="2">
+        <f t="shared" si="18"/>
+        <v>76</v>
+      </c>
+      <c r="J77" s="2" t="str">
+        <f t="shared" si="11"/>
+        <v>39</v>
+      </c>
+      <c r="K77" s="2" t="str">
+        <f t="shared" si="12"/>
+        <v xml:space="preserve"> 59</v>
+      </c>
+      <c r="L77" s="2" t="str">
+        <f t="shared" si="13"/>
+        <v xml:space="preserve"> 44.600</v>
+      </c>
+      <c r="M77" s="2" t="str">
+        <f t="shared" si="19"/>
+        <v>N</v>
+      </c>
+      <c r="N77" s="2" t="str">
+        <f t="shared" si="14"/>
+        <v>105</v>
+      </c>
+      <c r="O77" s="2" t="str">
+        <f t="shared" si="15"/>
+        <v xml:space="preserve"> 15 </v>
+      </c>
+      <c r="P77" s="2" t="str">
+        <f t="shared" si="16"/>
+        <v xml:space="preserve"> 43.131</v>
+      </c>
+      <c r="Q77" s="2" t="str">
+        <f t="shared" si="17"/>
+        <v>W</v>
+      </c>
+    </row>
+    <row r="78" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A78" s="2" t="s">
         <v>350</v>
       </c>
@@ -3665,8 +6516,44 @@
       <c r="F78" s="2" t="s">
         <v>353</v>
       </c>
-    </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="H78" s="2">
+        <f t="shared" si="18"/>
+        <v>77</v>
+      </c>
+      <c r="J78" s="2" t="str">
+        <f t="shared" si="11"/>
+        <v>39</v>
+      </c>
+      <c r="K78" s="2" t="str">
+        <f t="shared" si="12"/>
+        <v xml:space="preserve"> 59</v>
+      </c>
+      <c r="L78" s="2" t="str">
+        <f t="shared" si="13"/>
+        <v xml:space="preserve"> 44.635</v>
+      </c>
+      <c r="M78" s="2" t="str">
+        <f t="shared" si="19"/>
+        <v>N</v>
+      </c>
+      <c r="N78" s="2" t="str">
+        <f t="shared" si="14"/>
+        <v>105</v>
+      </c>
+      <c r="O78" s="2" t="str">
+        <f t="shared" si="15"/>
+        <v xml:space="preserve"> 15 </v>
+      </c>
+      <c r="P78" s="2" t="str">
+        <f t="shared" si="16"/>
+        <v xml:space="preserve"> 43.196</v>
+      </c>
+      <c r="Q78" s="2" t="str">
+        <f t="shared" si="17"/>
+        <v>W</v>
+      </c>
+    </row>
+    <row r="79" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A79" s="2" t="s">
         <v>314</v>
       </c>
@@ -3685,8 +6572,44 @@
       <c r="F79" s="2" t="s">
         <v>356</v>
       </c>
-    </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="H79" s="2">
+        <f t="shared" si="18"/>
+        <v>78</v>
+      </c>
+      <c r="J79" s="2" t="str">
+        <f t="shared" si="11"/>
+        <v>39</v>
+      </c>
+      <c r="K79" s="2" t="str">
+        <f t="shared" si="12"/>
+        <v xml:space="preserve"> 59</v>
+      </c>
+      <c r="L79" s="2" t="str">
+        <f t="shared" si="13"/>
+        <v xml:space="preserve"> 44.636</v>
+      </c>
+      <c r="M79" s="2" t="str">
+        <f t="shared" si="19"/>
+        <v>N</v>
+      </c>
+      <c r="N79" s="2" t="str">
+        <f t="shared" si="14"/>
+        <v>105</v>
+      </c>
+      <c r="O79" s="2" t="str">
+        <f t="shared" si="15"/>
+        <v xml:space="preserve"> 15 </v>
+      </c>
+      <c r="P79" s="2" t="str">
+        <f t="shared" si="16"/>
+        <v xml:space="preserve"> 43.030</v>
+      </c>
+      <c r="Q79" s="2" t="str">
+        <f t="shared" si="17"/>
+        <v>W</v>
+      </c>
+    </row>
+    <row r="80" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A80" s="2" t="s">
         <v>357</v>
       </c>
@@ -3705,8 +6628,44 @@
       <c r="F80" s="2" t="s">
         <v>360</v>
       </c>
-    </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="H80" s="2">
+        <f t="shared" si="18"/>
+        <v>79</v>
+      </c>
+      <c r="J80" s="2" t="str">
+        <f t="shared" si="11"/>
+        <v>39</v>
+      </c>
+      <c r="K80" s="2" t="str">
+        <f t="shared" si="12"/>
+        <v xml:space="preserve"> 59</v>
+      </c>
+      <c r="L80" s="2" t="str">
+        <f t="shared" si="13"/>
+        <v xml:space="preserve"> 44.653</v>
+      </c>
+      <c r="M80" s="2" t="str">
+        <f t="shared" si="19"/>
+        <v>N</v>
+      </c>
+      <c r="N80" s="2" t="str">
+        <f t="shared" si="14"/>
+        <v>105</v>
+      </c>
+      <c r="O80" s="2" t="str">
+        <f t="shared" si="15"/>
+        <v xml:space="preserve"> 15 </v>
+      </c>
+      <c r="P80" s="2" t="str">
+        <f t="shared" si="16"/>
+        <v xml:space="preserve"> 42.988</v>
+      </c>
+      <c r="Q80" s="2" t="str">
+        <f t="shared" si="17"/>
+        <v>W</v>
+      </c>
+    </row>
+    <row r="81" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A81" s="2" t="s">
         <v>361</v>
       </c>
@@ -3725,8 +6684,44 @@
       <c r="F81" s="2" t="s">
         <v>364</v>
       </c>
-    </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="H81" s="2">
+        <f t="shared" si="18"/>
+        <v>80</v>
+      </c>
+      <c r="J81" s="2" t="str">
+        <f t="shared" si="11"/>
+        <v>39</v>
+      </c>
+      <c r="K81" s="2" t="str">
+        <f t="shared" si="12"/>
+        <v xml:space="preserve"> 59</v>
+      </c>
+      <c r="L81" s="2" t="str">
+        <f t="shared" si="13"/>
+        <v xml:space="preserve"> 44.654</v>
+      </c>
+      <c r="M81" s="2" t="str">
+        <f t="shared" si="19"/>
+        <v>N</v>
+      </c>
+      <c r="N81" s="2" t="str">
+        <f t="shared" si="14"/>
+        <v>105</v>
+      </c>
+      <c r="O81" s="2" t="str">
+        <f t="shared" si="15"/>
+        <v xml:space="preserve"> 15 </v>
+      </c>
+      <c r="P81" s="2" t="str">
+        <f t="shared" si="16"/>
+        <v xml:space="preserve"> 43.221</v>
+      </c>
+      <c r="Q81" s="2" t="str">
+        <f t="shared" si="17"/>
+        <v>W</v>
+      </c>
+    </row>
+    <row r="82" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A82" s="2" t="s">
         <v>365</v>
       </c>
@@ -3745,8 +6740,44 @@
       <c r="F82" s="2" t="s">
         <v>368</v>
       </c>
-    </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="H82" s="2">
+        <f t="shared" si="18"/>
+        <v>81</v>
+      </c>
+      <c r="J82" s="2" t="str">
+        <f t="shared" si="11"/>
+        <v>39</v>
+      </c>
+      <c r="K82" s="2" t="str">
+        <f t="shared" si="12"/>
+        <v xml:space="preserve"> 59</v>
+      </c>
+      <c r="L82" s="2" t="str">
+        <f t="shared" si="13"/>
+        <v xml:space="preserve"> 44.660</v>
+      </c>
+      <c r="M82" s="2" t="str">
+        <f t="shared" si="19"/>
+        <v>N</v>
+      </c>
+      <c r="N82" s="2" t="str">
+        <f t="shared" si="14"/>
+        <v>105</v>
+      </c>
+      <c r="O82" s="2" t="str">
+        <f t="shared" si="15"/>
+        <v xml:space="preserve"> 15 </v>
+      </c>
+      <c r="P82" s="2" t="str">
+        <f t="shared" si="16"/>
+        <v xml:space="preserve"> 43.071</v>
+      </c>
+      <c r="Q82" s="2" t="str">
+        <f t="shared" si="17"/>
+        <v>W</v>
+      </c>
+    </row>
+    <row r="83" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A83" s="2" t="s">
         <v>369</v>
       </c>
@@ -3765,8 +6796,44 @@
       <c r="F83" s="2" t="s">
         <v>353</v>
       </c>
-    </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="H83" s="2">
+        <f t="shared" si="18"/>
+        <v>82</v>
+      </c>
+      <c r="J83" s="2" t="str">
+        <f t="shared" si="11"/>
+        <v>39</v>
+      </c>
+      <c r="K83" s="2" t="str">
+        <f t="shared" si="12"/>
+        <v xml:space="preserve"> 59</v>
+      </c>
+      <c r="L83" s="2" t="str">
+        <f t="shared" si="13"/>
+        <v xml:space="preserve"> 44.691</v>
+      </c>
+      <c r="M83" s="2" t="str">
+        <f t="shared" si="19"/>
+        <v>N</v>
+      </c>
+      <c r="N83" s="2" t="str">
+        <f t="shared" si="14"/>
+        <v>105</v>
+      </c>
+      <c r="O83" s="2" t="str">
+        <f t="shared" si="15"/>
+        <v xml:space="preserve"> 15 </v>
+      </c>
+      <c r="P83" s="2" t="str">
+        <f t="shared" si="16"/>
+        <v xml:space="preserve"> 43.187</v>
+      </c>
+      <c r="Q83" s="2" t="str">
+        <f t="shared" si="17"/>
+        <v>W</v>
+      </c>
+    </row>
+    <row r="84" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A84" s="2" t="s">
         <v>118</v>
       </c>
@@ -3785,8 +6852,44 @@
       <c r="F84" s="2" t="s">
         <v>374</v>
       </c>
-    </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="H84" s="2">
+        <f t="shared" si="18"/>
+        <v>83</v>
+      </c>
+      <c r="J84" s="2" t="str">
+        <f t="shared" si="11"/>
+        <v>39</v>
+      </c>
+      <c r="K84" s="2" t="str">
+        <f t="shared" si="12"/>
+        <v xml:space="preserve"> 59</v>
+      </c>
+      <c r="L84" s="2" t="str">
+        <f t="shared" si="13"/>
+        <v xml:space="preserve"> 43.56 </v>
+      </c>
+      <c r="M84" s="2" t="str">
+        <f t="shared" si="19"/>
+        <v>N</v>
+      </c>
+      <c r="N84" s="2" t="str">
+        <f t="shared" si="14"/>
+        <v>105</v>
+      </c>
+      <c r="O84" s="2" t="str">
+        <f t="shared" si="15"/>
+        <v xml:space="preserve"> 15 </v>
+      </c>
+      <c r="P84" s="2" t="str">
+        <f t="shared" si="16"/>
+        <v xml:space="preserve"> 44.34 </v>
+      </c>
+      <c r="Q84" s="2" t="str">
+        <f t="shared" si="17"/>
+        <v>W</v>
+      </c>
+    </row>
+    <row r="85" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A85" s="2" t="s">
         <v>314</v>
       </c>
@@ -3805,8 +6908,44 @@
       <c r="F85" s="2" t="s">
         <v>329</v>
       </c>
-    </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="H85" s="2">
+        <f t="shared" si="18"/>
+        <v>84</v>
+      </c>
+      <c r="J85" s="2" t="str">
+        <f t="shared" si="11"/>
+        <v>39</v>
+      </c>
+      <c r="K85" s="2" t="str">
+        <f t="shared" si="12"/>
+        <v xml:space="preserve"> 59</v>
+      </c>
+      <c r="L85" s="2" t="str">
+        <f t="shared" si="13"/>
+        <v xml:space="preserve"> 44.49s</v>
+      </c>
+      <c r="M85" s="2" t="str">
+        <f t="shared" si="19"/>
+        <v>N</v>
+      </c>
+      <c r="N85" s="2" t="str">
+        <f t="shared" si="14"/>
+        <v>105</v>
+      </c>
+      <c r="O85" s="2" t="str">
+        <f t="shared" si="15"/>
+        <v xml:space="preserve"> 15 </v>
+      </c>
+      <c r="P85" s="2" t="str">
+        <f t="shared" si="16"/>
+        <v xml:space="preserve"> 43.41s</v>
+      </c>
+      <c r="Q85" s="2" t="str">
+        <f t="shared" si="17"/>
+        <v>W</v>
+      </c>
+    </row>
+    <row r="86" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A86" s="2" t="s">
         <v>377</v>
       </c>
@@ -3825,8 +6964,44 @@
       <c r="F86" s="2" t="s">
         <v>382</v>
       </c>
-    </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="H86" s="2">
+        <f t="shared" si="18"/>
+        <v>85</v>
+      </c>
+      <c r="J86" s="2" t="str">
+        <f t="shared" si="11"/>
+        <v>4</v>
+      </c>
+      <c r="K86" s="2" t="str">
+        <f t="shared" si="12"/>
+        <v xml:space="preserve"> 3</v>
+      </c>
+      <c r="L86" s="2" t="str">
+        <f t="shared" si="13"/>
+        <v xml:space="preserve"> 34.487</v>
+      </c>
+      <c r="M86" s="2" t="str">
+        <f t="shared" si="19"/>
+        <v>N</v>
+      </c>
+      <c r="N86" s="2" t="str">
+        <f t="shared" si="14"/>
+        <v>74</v>
+      </c>
+      <c r="O86" s="2" t="str">
+        <f t="shared" si="15"/>
+        <v xml:space="preserve"> 5 </v>
+      </c>
+      <c r="P86" s="2" t="str">
+        <f t="shared" si="16"/>
+        <v xml:space="preserve"> 31.677</v>
+      </c>
+      <c r="Q86" s="2" t="str">
+        <f t="shared" si="17"/>
+        <v>W</v>
+      </c>
+    </row>
+    <row r="87" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A87" s="2" t="s">
         <v>383</v>
       </c>
@@ -3845,8 +7020,44 @@
       <c r="F87" s="2" t="s">
         <v>388</v>
       </c>
-    </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="H87" s="2">
+        <f t="shared" si="18"/>
+        <v>86</v>
+      </c>
+      <c r="J87" s="2" t="str">
+        <f t="shared" si="11"/>
+        <v>4</v>
+      </c>
+      <c r="K87" s="2" t="str">
+        <f t="shared" si="12"/>
+        <v xml:space="preserve"> 3</v>
+      </c>
+      <c r="L87" s="2" t="str">
+        <f t="shared" si="13"/>
+        <v xml:space="preserve"> 34.643</v>
+      </c>
+      <c r="M87" s="2" t="str">
+        <f t="shared" si="19"/>
+        <v>N</v>
+      </c>
+      <c r="N87" s="2" t="str">
+        <f t="shared" si="14"/>
+        <v>74</v>
+      </c>
+      <c r="O87" s="2" t="str">
+        <f t="shared" si="15"/>
+        <v xml:space="preserve"> 5 </v>
+      </c>
+      <c r="P87" s="2" t="str">
+        <f t="shared" si="16"/>
+        <v xml:space="preserve"> 32.593</v>
+      </c>
+      <c r="Q87" s="2" t="str">
+        <f t="shared" si="17"/>
+        <v>W</v>
+      </c>
+    </row>
+    <row r="88" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A88" s="2" t="s">
         <v>389</v>
       </c>
@@ -3865,8 +7076,44 @@
       <c r="F88" s="2" t="s">
         <v>394</v>
       </c>
-    </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="H88" s="2">
+        <f t="shared" si="18"/>
+        <v>87</v>
+      </c>
+      <c r="J88" s="2" t="str">
+        <f t="shared" si="11"/>
+        <v>40</v>
+      </c>
+      <c r="K88" s="2" t="str">
+        <f t="shared" si="12"/>
+        <v xml:space="preserve"> 35</v>
+      </c>
+      <c r="L88" s="2" t="str">
+        <f t="shared" si="13"/>
+        <v xml:space="preserve"> 5.059 </v>
+      </c>
+      <c r="M88" s="2" t="str">
+        <f t="shared" si="19"/>
+        <v>N</v>
+      </c>
+      <c r="N88" s="2" t="str">
+        <f t="shared" si="14"/>
+        <v>74</v>
+      </c>
+      <c r="O88" s="2" t="str">
+        <f t="shared" si="15"/>
+        <v xml:space="preserve"> 14</v>
+      </c>
+      <c r="P88" s="2" t="str">
+        <f t="shared" si="16"/>
+        <v xml:space="preserve"> 34.497</v>
+      </c>
+      <c r="Q88" s="2" t="str">
+        <f t="shared" si="17"/>
+        <v>W</v>
+      </c>
+    </row>
+    <row r="89" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A89" s="2" t="s">
         <v>395</v>
       </c>
@@ -3885,8 +7132,44 @@
       <c r="F89" s="2" t="s">
         <v>400</v>
       </c>
-    </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="H89" s="2">
+        <f t="shared" si="18"/>
+        <v>88</v>
+      </c>
+      <c r="J89" s="2" t="str">
+        <f t="shared" si="11"/>
+        <v>40</v>
+      </c>
+      <c r="K89" s="2" t="str">
+        <f t="shared" si="12"/>
+        <v xml:space="preserve"> 40</v>
+      </c>
+      <c r="L89" s="2" t="str">
+        <f t="shared" si="13"/>
+        <v xml:space="preserve"> 47.167</v>
+      </c>
+      <c r="M89" s="2" t="str">
+        <f t="shared" si="19"/>
+        <v>N</v>
+      </c>
+      <c r="N89" s="2" t="str">
+        <f t="shared" si="14"/>
+        <v>105</v>
+      </c>
+      <c r="O89" s="2" t="str">
+        <f t="shared" si="15"/>
+        <v xml:space="preserve"> 2 m</v>
+      </c>
+      <c r="P89" s="2" t="str">
+        <f t="shared" si="16"/>
+        <v xml:space="preserve"> 32.244</v>
+      </c>
+      <c r="Q89" s="2" t="str">
+        <f t="shared" si="17"/>
+        <v>W</v>
+      </c>
+    </row>
+    <row r="90" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A90" s="2" t="s">
         <v>118</v>
       </c>
@@ -3905,8 +7188,44 @@
       <c r="F90" s="2" t="s">
         <v>403</v>
       </c>
-    </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="H90" s="2">
+        <f t="shared" si="18"/>
+        <v>89</v>
+      </c>
+      <c r="J90" s="2" t="str">
+        <f t="shared" si="11"/>
+        <v>40</v>
+      </c>
+      <c r="K90" s="2" t="str">
+        <f t="shared" si="12"/>
+        <v xml:space="preserve"> 40</v>
+      </c>
+      <c r="L90" s="2" t="str">
+        <f t="shared" si="13"/>
+        <v xml:space="preserve"> 47.188</v>
+      </c>
+      <c r="M90" s="2" t="str">
+        <f t="shared" si="19"/>
+        <v>N</v>
+      </c>
+      <c r="N90" s="2" t="str">
+        <f t="shared" si="14"/>
+        <v>105</v>
+      </c>
+      <c r="O90" s="2" t="str">
+        <f t="shared" si="15"/>
+        <v xml:space="preserve"> 2 m</v>
+      </c>
+      <c r="P90" s="2" t="str">
+        <f t="shared" si="16"/>
+        <v xml:space="preserve"> 32.264</v>
+      </c>
+      <c r="Q90" s="2" t="str">
+        <f t="shared" si="17"/>
+        <v>W</v>
+      </c>
+    </row>
+    <row r="91" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A91" s="2" t="s">
         <v>404</v>
       </c>
@@ -3925,8 +7244,44 @@
       <c r="F91" s="2" t="s">
         <v>407</v>
       </c>
-    </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="H91" s="2">
+        <f t="shared" si="18"/>
+        <v>90</v>
+      </c>
+      <c r="J91" s="2" t="str">
+        <f t="shared" si="11"/>
+        <v>40</v>
+      </c>
+      <c r="K91" s="2" t="str">
+        <f t="shared" si="12"/>
+        <v xml:space="preserve"> 40</v>
+      </c>
+      <c r="L91" s="2" t="str">
+        <f t="shared" si="13"/>
+        <v xml:space="preserve"> 47.443</v>
+      </c>
+      <c r="M91" s="2" t="str">
+        <f t="shared" si="19"/>
+        <v>N</v>
+      </c>
+      <c r="N91" s="2" t="str">
+        <f t="shared" si="14"/>
+        <v>105</v>
+      </c>
+      <c r="O91" s="2" t="str">
+        <f t="shared" si="15"/>
+        <v xml:space="preserve"> 2 m</v>
+      </c>
+      <c r="P91" s="2" t="str">
+        <f t="shared" si="16"/>
+        <v xml:space="preserve"> 32.125</v>
+      </c>
+      <c r="Q91" s="2" t="str">
+        <f t="shared" si="17"/>
+        <v>W</v>
+      </c>
+    </row>
+    <row r="92" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A92" s="2" t="s">
         <v>408</v>
       </c>
@@ -3945,8 +7300,44 @@
       <c r="F92" s="2" t="s">
         <v>413</v>
       </c>
-    </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="H92" s="2">
+        <f t="shared" si="18"/>
+        <v>91</v>
+      </c>
+      <c r="J92" s="2" t="str">
+        <f t="shared" si="11"/>
+        <v>40</v>
+      </c>
+      <c r="K92" s="2" t="str">
+        <f t="shared" si="12"/>
+        <v xml:space="preserve"> 45</v>
+      </c>
+      <c r="L92" s="2" t="str">
+        <f t="shared" si="13"/>
+        <v xml:space="preserve"> 43.263</v>
+      </c>
+      <c r="M92" s="2" t="str">
+        <f t="shared" si="19"/>
+        <v>N</v>
+      </c>
+      <c r="N92" s="2" t="str">
+        <f t="shared" si="14"/>
+        <v>74</v>
+      </c>
+      <c r="O92" s="2" t="str">
+        <f t="shared" si="15"/>
+        <v xml:space="preserve"> 1 </v>
+      </c>
+      <c r="P92" s="2" t="str">
+        <f t="shared" si="16"/>
+        <v xml:space="preserve"> 28.915</v>
+      </c>
+      <c r="Q92" s="2" t="str">
+        <f t="shared" si="17"/>
+        <v>W</v>
+      </c>
+    </row>
+    <row r="93" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A93" s="2" t="s">
         <v>414</v>
       </c>
@@ -3965,8 +7356,44 @@
       <c r="F93" s="2" t="s">
         <v>419</v>
       </c>
-    </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="H93" s="2">
+        <f t="shared" si="18"/>
+        <v>92</v>
+      </c>
+      <c r="J93" s="2" t="str">
+        <f t="shared" si="11"/>
+        <v>40</v>
+      </c>
+      <c r="K93" s="2" t="str">
+        <f t="shared" si="12"/>
+        <v xml:space="preserve"> 46</v>
+      </c>
+      <c r="L93" s="2" t="str">
+        <f t="shared" si="13"/>
+        <v xml:space="preserve"> 31.490</v>
+      </c>
+      <c r="M93" s="2" t="str">
+        <f t="shared" si="19"/>
+        <v>N</v>
+      </c>
+      <c r="N93" s="2" t="str">
+        <f t="shared" si="14"/>
+        <v>74</v>
+      </c>
+      <c r="O93" s="2" t="str">
+        <f t="shared" si="15"/>
+        <v xml:space="preserve"> 4 </v>
+      </c>
+      <c r="P93" s="2" t="str">
+        <f t="shared" si="16"/>
+        <v xml:space="preserve"> 11.677</v>
+      </c>
+      <c r="Q93" s="2" t="str">
+        <f t="shared" si="17"/>
+        <v>W</v>
+      </c>
+    </row>
+    <row r="94" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A94" s="2" t="s">
         <v>420</v>
       </c>
@@ -3985,8 +7412,44 @@
       <c r="F94" s="2" t="s">
         <v>425</v>
       </c>
-    </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="H94" s="2">
+        <f t="shared" si="18"/>
+        <v>93</v>
+      </c>
+      <c r="J94" s="2" t="str">
+        <f t="shared" si="11"/>
+        <v>40</v>
+      </c>
+      <c r="K94" s="2" t="str">
+        <f t="shared" si="12"/>
+        <v xml:space="preserve"> 49</v>
+      </c>
+      <c r="L94" s="2" t="str">
+        <f t="shared" si="13"/>
+        <v xml:space="preserve"> 40.625</v>
+      </c>
+      <c r="M94" s="2" t="str">
+        <f t="shared" si="19"/>
+        <v>N</v>
+      </c>
+      <c r="N94" s="2" t="str">
+        <f t="shared" si="14"/>
+        <v>74</v>
+      </c>
+      <c r="O94" s="2" t="str">
+        <f t="shared" si="15"/>
+        <v xml:space="preserve"> 8 </v>
+      </c>
+      <c r="P94" s="2" t="str">
+        <f t="shared" si="16"/>
+        <v xml:space="preserve"> 17.564</v>
+      </c>
+      <c r="Q94" s="2" t="str">
+        <f t="shared" si="17"/>
+        <v>W</v>
+      </c>
+    </row>
+    <row r="95" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A95" s="2" t="s">
         <v>426</v>
       </c>
@@ -4005,8 +7468,44 @@
       <c r="F95" s="2" t="s">
         <v>431</v>
       </c>
-    </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="H95" s="2">
+        <f t="shared" si="18"/>
+        <v>94</v>
+      </c>
+      <c r="J95" s="2" t="str">
+        <f t="shared" si="11"/>
+        <v>41</v>
+      </c>
+      <c r="K95" s="2" t="str">
+        <f t="shared" si="12"/>
+        <v xml:space="preserve"> 4 </v>
+      </c>
+      <c r="L95" s="2" t="str">
+        <f t="shared" si="13"/>
+        <v xml:space="preserve"> 41.170</v>
+      </c>
+      <c r="M95" s="2" t="str">
+        <f t="shared" si="19"/>
+        <v>N</v>
+      </c>
+      <c r="N95" s="2" t="str">
+        <f t="shared" si="14"/>
+        <v>74</v>
+      </c>
+      <c r="O95" s="2" t="str">
+        <f t="shared" si="15"/>
+        <v xml:space="preserve"> 9 </v>
+      </c>
+      <c r="P95" s="2" t="str">
+        <f t="shared" si="16"/>
+        <v xml:space="preserve"> 11.121</v>
+      </c>
+      <c r="Q95" s="2" t="str">
+        <f t="shared" si="17"/>
+        <v>W</v>
+      </c>
+    </row>
+    <row r="96" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A96" s="2" t="s">
         <v>432</v>
       </c>
@@ -4025,8 +7524,44 @@
       <c r="F96" s="2" t="s">
         <v>437</v>
       </c>
-    </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="H96" s="2">
+        <f t="shared" si="18"/>
+        <v>95</v>
+      </c>
+      <c r="J96" s="2" t="str">
+        <f t="shared" si="11"/>
+        <v>41</v>
+      </c>
+      <c r="K96" s="2" t="str">
+        <f t="shared" si="12"/>
+        <v xml:space="preserve"> 47</v>
+      </c>
+      <c r="L96" s="2" t="str">
+        <f t="shared" si="13"/>
+        <v xml:space="preserve"> 45.759</v>
+      </c>
+      <c r="M96" s="2" t="str">
+        <f t="shared" si="19"/>
+        <v>N</v>
+      </c>
+      <c r="N96" s="2" t="str">
+        <f t="shared" si="14"/>
+        <v>88</v>
+      </c>
+      <c r="O96" s="2" t="str">
+        <f t="shared" si="15"/>
+        <v xml:space="preserve"> 14</v>
+      </c>
+      <c r="P96" s="2" t="str">
+        <f t="shared" si="16"/>
+        <v xml:space="preserve"> 37.032</v>
+      </c>
+      <c r="Q96" s="2" t="str">
+        <f t="shared" si="17"/>
+        <v>W</v>
+      </c>
+    </row>
+    <row r="97" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A97" s="2" t="s">
         <v>438</v>
       </c>
@@ -4045,8 +7580,44 @@
       <c r="F97" s="2" t="s">
         <v>443</v>
       </c>
-    </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="H97" s="2">
+        <f t="shared" si="18"/>
+        <v>96</v>
+      </c>
+      <c r="J97" s="2" t="str">
+        <f t="shared" si="11"/>
+        <v>41</v>
+      </c>
+      <c r="K97" s="2" t="str">
+        <f t="shared" si="12"/>
+        <v xml:space="preserve"> 47</v>
+      </c>
+      <c r="L97" s="2" t="str">
+        <f t="shared" si="13"/>
+        <v xml:space="preserve"> 47.962</v>
+      </c>
+      <c r="M97" s="2" t="str">
+        <f t="shared" si="19"/>
+        <v>N</v>
+      </c>
+      <c r="N97" s="2" t="str">
+        <f t="shared" si="14"/>
+        <v>88</v>
+      </c>
+      <c r="O97" s="2" t="str">
+        <f t="shared" si="15"/>
+        <v xml:space="preserve"> 14</v>
+      </c>
+      <c r="P97" s="2" t="str">
+        <f t="shared" si="16"/>
+        <v xml:space="preserve"> 39.018</v>
+      </c>
+      <c r="Q97" s="2" t="str">
+        <f t="shared" si="17"/>
+        <v>W</v>
+      </c>
+    </row>
+    <row r="98" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A98" s="2" t="s">
         <v>444</v>
       </c>
@@ -4065,8 +7636,44 @@
       <c r="F98" s="2" t="s">
         <v>449</v>
       </c>
-    </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="H98" s="2">
+        <f t="shared" si="18"/>
+        <v>97</v>
+      </c>
+      <c r="J98" s="2" t="str">
+        <f t="shared" si="11"/>
+        <v>41</v>
+      </c>
+      <c r="K98" s="2" t="str">
+        <f t="shared" si="12"/>
+        <v xml:space="preserve"> 51</v>
+      </c>
+      <c r="L98" s="2" t="str">
+        <f t="shared" si="13"/>
+        <v xml:space="preserve"> 14.215</v>
+      </c>
+      <c r="M98" s="2" t="str">
+        <f t="shared" si="19"/>
+        <v>N</v>
+      </c>
+      <c r="N98" s="2" t="str">
+        <f t="shared" si="14"/>
+        <v>87</v>
+      </c>
+      <c r="O98" s="2" t="str">
+        <f t="shared" si="15"/>
+        <v xml:space="preserve"> 37</v>
+      </c>
+      <c r="P98" s="2" t="str">
+        <f t="shared" si="16"/>
+        <v xml:space="preserve"> 8.418 </v>
+      </c>
+      <c r="Q98" s="2" t="str">
+        <f t="shared" si="17"/>
+        <v>W</v>
+      </c>
+    </row>
+    <row r="99" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A99" s="2" t="s">
         <v>450</v>
       </c>
@@ -4085,8 +7692,44 @@
       <c r="F99" s="2" t="s">
         <v>454</v>
       </c>
-    </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="H99" s="2">
+        <f t="shared" si="18"/>
+        <v>98</v>
+      </c>
+      <c r="J99" s="2" t="str">
+        <f t="shared" si="11"/>
+        <v>41</v>
+      </c>
+      <c r="K99" s="2" t="str">
+        <f t="shared" si="12"/>
+        <v xml:space="preserve"> 51</v>
+      </c>
+      <c r="L99" s="2" t="str">
+        <f t="shared" si="13"/>
+        <v xml:space="preserve"> 14.737</v>
+      </c>
+      <c r="M99" s="2" t="str">
+        <f t="shared" si="19"/>
+        <v>N</v>
+      </c>
+      <c r="N99" s="2" t="str">
+        <f t="shared" si="14"/>
+        <v>87</v>
+      </c>
+      <c r="O99" s="2" t="str">
+        <f t="shared" si="15"/>
+        <v xml:space="preserve"> 37</v>
+      </c>
+      <c r="P99" s="2" t="str">
+        <f t="shared" si="16"/>
+        <v xml:space="preserve"> 7.759 </v>
+      </c>
+      <c r="Q99" s="2" t="str">
+        <f t="shared" si="17"/>
+        <v>W</v>
+      </c>
+    </row>
+    <row r="100" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A100" s="2" t="s">
         <v>455</v>
       </c>
@@ -4105,8 +7748,44 @@
       <c r="F100" s="2" t="s">
         <v>460</v>
       </c>
-    </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="H100" s="2">
+        <f t="shared" si="18"/>
+        <v>99</v>
+      </c>
+      <c r="J100" s="2" t="str">
+        <f t="shared" si="11"/>
+        <v>42</v>
+      </c>
+      <c r="K100" s="2" t="str">
+        <f t="shared" si="12"/>
+        <v xml:space="preserve"> 31</v>
+      </c>
+      <c r="L100" s="2" t="str">
+        <f t="shared" si="13"/>
+        <v xml:space="preserve"> 5.369 </v>
+      </c>
+      <c r="M100" s="2" t="str">
+        <f t="shared" si="19"/>
+        <v>N</v>
+      </c>
+      <c r="N100" s="2" t="str">
+        <f t="shared" si="14"/>
+        <v>70</v>
+      </c>
+      <c r="O100" s="2" t="str">
+        <f t="shared" si="15"/>
+        <v xml:space="preserve"> 53</v>
+      </c>
+      <c r="P100" s="2" t="str">
+        <f t="shared" si="16"/>
+        <v xml:space="preserve"> 14.373</v>
+      </c>
+      <c r="Q100" s="2" t="str">
+        <f t="shared" si="17"/>
+        <v>W</v>
+      </c>
+    </row>
+    <row r="101" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A101" s="2" t="s">
         <v>198</v>
       </c>
@@ -4125,8 +7804,44 @@
       <c r="F101" s="2" t="s">
         <v>465</v>
       </c>
-    </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="H101" s="2">
+        <f t="shared" si="18"/>
+        <v>100</v>
+      </c>
+      <c r="J101" s="2" t="str">
+        <f t="shared" si="11"/>
+        <v>42</v>
+      </c>
+      <c r="K101" s="2" t="str">
+        <f t="shared" si="12"/>
+        <v xml:space="preserve"> 34</v>
+      </c>
+      <c r="L101" s="2" t="str">
+        <f t="shared" si="13"/>
+        <v xml:space="preserve"> 14.739</v>
+      </c>
+      <c r="M101" s="2" t="str">
+        <f t="shared" si="19"/>
+        <v>N</v>
+      </c>
+      <c r="N101" s="2" t="str">
+        <f t="shared" si="14"/>
+        <v>70</v>
+      </c>
+      <c r="O101" s="2" t="str">
+        <f t="shared" si="15"/>
+        <v xml:space="preserve"> 52</v>
+      </c>
+      <c r="P101" s="2" t="str">
+        <f t="shared" si="16"/>
+        <v xml:space="preserve"> 52.494</v>
+      </c>
+      <c r="Q101" s="2" t="str">
+        <f t="shared" si="17"/>
+        <v>W</v>
+      </c>
+    </row>
+    <row r="102" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A102" s="2" t="s">
         <v>198</v>
       </c>
@@ -4145,8 +7860,44 @@
       <c r="F102" s="2" t="s">
         <v>467</v>
       </c>
-    </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="H102" s="2">
+        <f t="shared" si="18"/>
+        <v>101</v>
+      </c>
+      <c r="J102" s="2" t="str">
+        <f t="shared" si="11"/>
+        <v>42</v>
+      </c>
+      <c r="K102" s="2" t="str">
+        <f t="shared" si="12"/>
+        <v xml:space="preserve"> 34</v>
+      </c>
+      <c r="L102" s="2" t="str">
+        <f t="shared" si="13"/>
+        <v xml:space="preserve"> 14.739</v>
+      </c>
+      <c r="M102" s="2" t="str">
+        <f t="shared" si="19"/>
+        <v>N</v>
+      </c>
+      <c r="N102" s="2" t="str">
+        <f t="shared" si="14"/>
+        <v>70</v>
+      </c>
+      <c r="O102" s="2" t="str">
+        <f t="shared" si="15"/>
+        <v xml:space="preserve"> 52</v>
+      </c>
+      <c r="P102" s="2" t="str">
+        <f t="shared" si="16"/>
+        <v xml:space="preserve"> 52.476</v>
+      </c>
+      <c r="Q102" s="2" t="str">
+        <f t="shared" si="17"/>
+        <v>W</v>
+      </c>
+    </row>
+    <row r="103" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A103" s="2" t="s">
         <v>468</v>
       </c>
@@ -4165,8 +7916,44 @@
       <c r="F103" s="2" t="s">
         <v>473</v>
       </c>
-    </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="H103" s="2">
+        <f t="shared" si="18"/>
+        <v>102</v>
+      </c>
+      <c r="J103" s="2" t="str">
+        <f t="shared" si="11"/>
+        <v>42</v>
+      </c>
+      <c r="K103" s="2" t="str">
+        <f t="shared" si="12"/>
+        <v xml:space="preserve"> 40</v>
+      </c>
+      <c r="L103" s="2" t="str">
+        <f t="shared" si="13"/>
+        <v xml:space="preserve"> 6.203 </v>
+      </c>
+      <c r="M103" s="2" t="str">
+        <f t="shared" si="19"/>
+        <v>N</v>
+      </c>
+      <c r="N103" s="2" t="str">
+        <f t="shared" si="14"/>
+        <v>88</v>
+      </c>
+      <c r="O103" s="2" t="str">
+        <f t="shared" si="15"/>
+        <v xml:space="preserve"> 17</v>
+      </c>
+      <c r="P103" s="2" t="str">
+        <f t="shared" si="16"/>
+        <v xml:space="preserve"> 8.398 </v>
+      </c>
+      <c r="Q103" s="2" t="str">
+        <f t="shared" si="17"/>
+        <v>W</v>
+      </c>
+    </row>
+    <row r="104" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A104" s="2" t="s">
         <v>474</v>
       </c>
@@ -4185,8 +7972,44 @@
       <c r="F104" s="2" t="s">
         <v>479</v>
       </c>
-    </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="H104" s="2">
+        <f t="shared" si="18"/>
+        <v>103</v>
+      </c>
+      <c r="J104" s="2" t="str">
+        <f t="shared" si="11"/>
+        <v>42</v>
+      </c>
+      <c r="K104" s="2" t="str">
+        <f t="shared" si="12"/>
+        <v xml:space="preserve"> 42</v>
+      </c>
+      <c r="L104" s="2" t="str">
+        <f t="shared" si="13"/>
+        <v xml:space="preserve"> 16.237</v>
+      </c>
+      <c r="M104" s="2" t="str">
+        <f t="shared" si="19"/>
+        <v>N</v>
+      </c>
+      <c r="N104" s="2" t="str">
+        <f t="shared" si="14"/>
+        <v>71</v>
+      </c>
+      <c r="O104" s="2" t="str">
+        <f t="shared" si="15"/>
+        <v xml:space="preserve"> 25</v>
+      </c>
+      <c r="P104" s="2" t="str">
+        <f t="shared" si="16"/>
+        <v xml:space="preserve"> 56.113</v>
+      </c>
+      <c r="Q104" s="2" t="str">
+        <f t="shared" si="17"/>
+        <v>W</v>
+      </c>
+    </row>
+    <row r="105" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A105" s="2" t="s">
         <v>474</v>
       </c>
@@ -4205,8 +8028,44 @@
       <c r="F105" s="2" t="s">
         <v>479</v>
       </c>
-    </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="H105" s="2">
+        <f t="shared" si="18"/>
+        <v>104</v>
+      </c>
+      <c r="J105" s="2" t="str">
+        <f t="shared" si="11"/>
+        <v>42</v>
+      </c>
+      <c r="K105" s="2" t="str">
+        <f t="shared" si="12"/>
+        <v xml:space="preserve"> 42</v>
+      </c>
+      <c r="L105" s="2" t="str">
+        <f t="shared" si="13"/>
+        <v xml:space="preserve"> 16.243</v>
+      </c>
+      <c r="M105" s="2" t="str">
+        <f t="shared" si="19"/>
+        <v>N</v>
+      </c>
+      <c r="N105" s="2" t="str">
+        <f t="shared" si="14"/>
+        <v>71</v>
+      </c>
+      <c r="O105" s="2" t="str">
+        <f t="shared" si="15"/>
+        <v xml:space="preserve"> 25</v>
+      </c>
+      <c r="P105" s="2" t="str">
+        <f t="shared" si="16"/>
+        <v xml:space="preserve"> 56.155</v>
+      </c>
+      <c r="Q105" s="2" t="str">
+        <f t="shared" si="17"/>
+        <v>W</v>
+      </c>
+    </row>
+    <row r="106" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A106" s="2" t="s">
         <v>474</v>
       </c>
@@ -4225,8 +8084,44 @@
       <c r="F106" s="2" t="s">
         <v>484</v>
       </c>
-    </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="H106" s="2">
+        <f t="shared" si="18"/>
+        <v>105</v>
+      </c>
+      <c r="J106" s="2" t="str">
+        <f t="shared" si="11"/>
+        <v>42</v>
+      </c>
+      <c r="K106" s="2" t="str">
+        <f t="shared" si="12"/>
+        <v xml:space="preserve"> 42</v>
+      </c>
+      <c r="L106" s="2" t="str">
+        <f t="shared" si="13"/>
+        <v xml:space="preserve"> 16.255</v>
+      </c>
+      <c r="M106" s="2" t="str">
+        <f t="shared" si="19"/>
+        <v>N</v>
+      </c>
+      <c r="N106" s="2" t="str">
+        <f t="shared" si="14"/>
+        <v>71</v>
+      </c>
+      <c r="O106" s="2" t="str">
+        <f t="shared" si="15"/>
+        <v xml:space="preserve"> 25</v>
+      </c>
+      <c r="P106" s="2" t="str">
+        <f t="shared" si="16"/>
+        <v xml:space="preserve"> 56.142</v>
+      </c>
+      <c r="Q106" s="2" t="str">
+        <f t="shared" si="17"/>
+        <v>W</v>
+      </c>
+    </row>
+    <row r="107" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A107" s="2" t="s">
         <v>198</v>
       </c>
@@ -4245,8 +8140,44 @@
       <c r="F107" s="2" t="s">
         <v>489</v>
       </c>
-    </row>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="H107" s="2">
+        <f t="shared" si="18"/>
+        <v>106</v>
+      </c>
+      <c r="J107" s="2" t="str">
+        <f t="shared" si="11"/>
+        <v>42</v>
+      </c>
+      <c r="K107" s="2" t="str">
+        <f t="shared" si="12"/>
+        <v xml:space="preserve"> 53</v>
+      </c>
+      <c r="L107" s="2" t="str">
+        <f t="shared" si="13"/>
+        <v xml:space="preserve"> 55.233</v>
+      </c>
+      <c r="M107" s="2" t="str">
+        <f t="shared" si="19"/>
+        <v>N</v>
+      </c>
+      <c r="N107" s="2" t="str">
+        <f t="shared" si="14"/>
+        <v>71</v>
+      </c>
+      <c r="O107" s="2" t="str">
+        <f t="shared" si="15"/>
+        <v xml:space="preserve"> 19</v>
+      </c>
+      <c r="P107" s="2" t="str">
+        <f t="shared" si="16"/>
+        <v xml:space="preserve"> 42.092</v>
+      </c>
+      <c r="Q107" s="2" t="str">
+        <f t="shared" si="17"/>
+        <v>W</v>
+      </c>
+    </row>
+    <row r="108" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A108" s="2" t="s">
         <v>490</v>
       </c>
@@ -4265,8 +8196,44 @@
       <c r="F108" s="2" t="s">
         <v>495</v>
       </c>
-    </row>
-    <row r="109" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="H108" s="2">
+        <f t="shared" si="18"/>
+        <v>107</v>
+      </c>
+      <c r="J108" s="2" t="str">
+        <f t="shared" si="11"/>
+        <v>42</v>
+      </c>
+      <c r="K108" s="2" t="str">
+        <f t="shared" si="12"/>
+        <v xml:space="preserve"> 56</v>
+      </c>
+      <c r="L108" s="2" t="str">
+        <f t="shared" si="13"/>
+        <v xml:space="preserve"> 9.646 </v>
+      </c>
+      <c r="M108" s="2" t="str">
+        <f t="shared" si="19"/>
+        <v>N</v>
+      </c>
+      <c r="N108" s="2" t="str">
+        <f t="shared" si="14"/>
+        <v>71</v>
+      </c>
+      <c r="O108" s="2" t="str">
+        <f t="shared" si="15"/>
+        <v xml:space="preserve"> 25</v>
+      </c>
+      <c r="P108" s="2" t="str">
+        <f t="shared" si="16"/>
+        <v xml:space="preserve"> 20.919</v>
+      </c>
+      <c r="Q108" s="2" t="str">
+        <f t="shared" si="17"/>
+        <v>W</v>
+      </c>
+    </row>
+    <row r="109" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A109" s="2" t="s">
         <v>496</v>
       </c>
@@ -4285,8 +8252,44 @@
       <c r="F109" s="2" t="s">
         <v>501</v>
       </c>
-    </row>
-    <row r="110" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="H109" s="2">
+        <f t="shared" si="18"/>
+        <v>108</v>
+      </c>
+      <c r="J109" s="2" t="str">
+        <f t="shared" si="11"/>
+        <v>45</v>
+      </c>
+      <c r="K109" s="2" t="str">
+        <f t="shared" si="12"/>
+        <v xml:space="preserve"> 27</v>
+      </c>
+      <c r="L109" s="2" t="str">
+        <f t="shared" si="13"/>
+        <v xml:space="preserve"> 14.853</v>
+      </c>
+      <c r="M109" s="2" t="str">
+        <f t="shared" si="19"/>
+        <v>N</v>
+      </c>
+      <c r="N109" s="2" t="str">
+        <f t="shared" si="14"/>
+        <v>75</v>
+      </c>
+      <c r="O109" s="2" t="str">
+        <f t="shared" si="15"/>
+        <v xml:space="preserve"> 37</v>
+      </c>
+      <c r="P109" s="2" t="str">
+        <f t="shared" si="16"/>
+        <v xml:space="preserve"> 25.809</v>
+      </c>
+      <c r="Q109" s="2" t="str">
+        <f t="shared" si="17"/>
+        <v>W</v>
+      </c>
+    </row>
+    <row r="110" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A110" s="2" t="s">
         <v>502</v>
       </c>
@@ -4305,8 +8308,44 @@
       <c r="F110" s="2" t="s">
         <v>507</v>
       </c>
-    </row>
-    <row r="111" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="H110" s="2">
+        <f t="shared" si="18"/>
+        <v>109</v>
+      </c>
+      <c r="J110" s="2" t="str">
+        <f t="shared" si="11"/>
+        <v>46</v>
+      </c>
+      <c r="K110" s="2" t="str">
+        <f t="shared" si="12"/>
+        <v xml:space="preserve"> 44</v>
+      </c>
+      <c r="L110" s="2" t="str">
+        <f t="shared" si="13"/>
+        <v xml:space="preserve"> 48.511</v>
+      </c>
+      <c r="M110" s="2" t="str">
+        <f t="shared" si="19"/>
+        <v>N</v>
+      </c>
+      <c r="N110" s="2" t="str">
+        <f t="shared" si="14"/>
+        <v>117</v>
+      </c>
+      <c r="O110" s="2" t="str">
+        <f t="shared" si="15"/>
+        <v xml:space="preserve"> 9 m</v>
+      </c>
+      <c r="P110" s="2" t="str">
+        <f t="shared" si="16"/>
+        <v xml:space="preserve"> 55.341</v>
+      </c>
+      <c r="Q110" s="2" t="str">
+        <f t="shared" si="17"/>
+        <v>W</v>
+      </c>
+    </row>
+    <row r="111" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A111" s="2" t="s">
         <v>502</v>
       </c>
@@ -4325,8 +8364,44 @@
       <c r="F111" s="2" t="s">
         <v>512</v>
       </c>
-    </row>
-    <row r="112" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="H111" s="2">
+        <f t="shared" si="18"/>
+        <v>110</v>
+      </c>
+      <c r="J111" s="2" t="str">
+        <f t="shared" si="11"/>
+        <v>46</v>
+      </c>
+      <c r="K111" s="2" t="str">
+        <f t="shared" si="12"/>
+        <v xml:space="preserve"> 45</v>
+      </c>
+      <c r="L111" s="2" t="str">
+        <f t="shared" si="13"/>
+        <v xml:space="preserve"> 2.419 </v>
+      </c>
+      <c r="M111" s="2" t="str">
+        <f t="shared" si="19"/>
+        <v>N</v>
+      </c>
+      <c r="N111" s="2" t="str">
+        <f t="shared" si="14"/>
+        <v>117</v>
+      </c>
+      <c r="O111" s="2" t="str">
+        <f t="shared" si="15"/>
+        <v xml:space="preserve"> 9 m</v>
+      </c>
+      <c r="P111" s="2" t="str">
+        <f t="shared" si="16"/>
+        <v xml:space="preserve"> 53.782</v>
+      </c>
+      <c r="Q111" s="2" t="str">
+        <f t="shared" si="17"/>
+        <v>W</v>
+      </c>
+    </row>
+    <row r="112" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A112" s="2" t="s">
         <v>513</v>
       </c>
@@ -4345,8 +8420,44 @@
       <c r="F112" s="2" t="s">
         <v>518</v>
       </c>
-    </row>
-    <row r="113" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="H112" s="2">
+        <f t="shared" si="18"/>
+        <v>111</v>
+      </c>
+      <c r="J112" s="2" t="str">
+        <f t="shared" si="11"/>
+        <v>47</v>
+      </c>
+      <c r="K112" s="2" t="str">
+        <f t="shared" si="12"/>
+        <v xml:space="preserve"> 32</v>
+      </c>
+      <c r="L112" s="2" t="str">
+        <f t="shared" si="13"/>
+        <v xml:space="preserve"> 6.622 </v>
+      </c>
+      <c r="M112" s="2" t="str">
+        <f t="shared" si="19"/>
+        <v>N</v>
+      </c>
+      <c r="N112" s="2" t="str">
+        <f t="shared" si="14"/>
+        <v>122</v>
+      </c>
+      <c r="O112" s="2" t="str">
+        <f t="shared" si="15"/>
+        <v xml:space="preserve"> 19 </v>
+      </c>
+      <c r="P112" s="2" t="str">
+        <f t="shared" si="16"/>
+        <v xml:space="preserve"> 3.538 </v>
+      </c>
+      <c r="Q112" s="2" t="str">
+        <f t="shared" si="17"/>
+        <v>W</v>
+      </c>
+    </row>
+    <row r="113" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A113" s="2" t="s">
         <v>519</v>
       </c>
@@ -4365,8 +8476,44 @@
       <c r="F113" s="2" t="s">
         <v>524</v>
       </c>
-    </row>
-    <row r="114" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="H113" s="2">
+        <f t="shared" si="18"/>
+        <v>112</v>
+      </c>
+      <c r="J113" s="2" t="str">
+        <f t="shared" si="11"/>
+        <v>50</v>
+      </c>
+      <c r="K113" s="2" t="str">
+        <f t="shared" si="12"/>
+        <v xml:space="preserve"> 8 </v>
+      </c>
+      <c r="L113" s="2" t="str">
+        <f t="shared" si="13"/>
+        <v xml:space="preserve"> 32.477</v>
+      </c>
+      <c r="M113" s="2" t="str">
+        <f t="shared" si="19"/>
+        <v>N</v>
+      </c>
+      <c r="N113" s="2" t="str">
+        <f t="shared" si="14"/>
+        <v>8</v>
+      </c>
+      <c r="O113" s="2" t="str">
+        <f t="shared" si="15"/>
+        <v xml:space="preserve"> 4</v>
+      </c>
+      <c r="P113" s="2" t="str">
+        <f t="shared" si="16"/>
+        <v xml:space="preserve"> 16.531</v>
+      </c>
+      <c r="Q113" s="2" t="str">
+        <f t="shared" si="17"/>
+        <v>E</v>
+      </c>
+    </row>
+    <row r="114" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A114" s="2" t="s">
         <v>525</v>
       </c>
@@ -4385,8 +8532,44 @@
       <c r="F114" s="2" t="s">
         <v>530</v>
       </c>
-    </row>
-    <row r="115" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="H114" s="2">
+        <f t="shared" si="18"/>
+        <v>113</v>
+      </c>
+      <c r="J114" s="2" t="str">
+        <f t="shared" si="11"/>
+        <v>51</v>
+      </c>
+      <c r="K114" s="2" t="str">
+        <f t="shared" si="12"/>
+        <v xml:space="preserve"> 29</v>
+      </c>
+      <c r="L114" s="2" t="str">
+        <f t="shared" si="13"/>
+        <v xml:space="preserve"> 39.628</v>
+      </c>
+      <c r="M114" s="2" t="str">
+        <f t="shared" si="19"/>
+        <v>N</v>
+      </c>
+      <c r="N114" s="2" t="str">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="O114" s="2" t="str">
+        <f t="shared" si="15"/>
+        <v xml:space="preserve"> 1</v>
+      </c>
+      <c r="P114" s="2" t="str">
+        <f t="shared" si="16"/>
+        <v xml:space="preserve"> 9.488 </v>
+      </c>
+      <c r="Q114" s="2" t="str">
+        <f t="shared" si="17"/>
+        <v>W</v>
+      </c>
+    </row>
+    <row r="115" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A115" s="2" t="s">
         <v>531</v>
       </c>
@@ -4405,8 +8588,44 @@
       <c r="F115" s="2" t="s">
         <v>536</v>
       </c>
-    </row>
-    <row r="116" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="H115" s="2">
+        <f t="shared" si="18"/>
+        <v>114</v>
+      </c>
+      <c r="J115" s="2" t="str">
+        <f t="shared" si="11"/>
+        <v>51</v>
+      </c>
+      <c r="K115" s="2" t="str">
+        <f t="shared" si="12"/>
+        <v xml:space="preserve"> 31</v>
+      </c>
+      <c r="L115" s="2" t="str">
+        <f t="shared" si="13"/>
+        <v xml:space="preserve"> 24.756</v>
+      </c>
+      <c r="M115" s="2" t="str">
+        <f t="shared" si="19"/>
+        <v>N</v>
+      </c>
+      <c r="N115" s="2" t="str">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="O115" s="2" t="str">
+        <f t="shared" si="15"/>
+        <v xml:space="preserve"> 3</v>
+      </c>
+      <c r="P115" s="2" t="str">
+        <f t="shared" si="16"/>
+        <v xml:space="preserve"> 6.187 </v>
+      </c>
+      <c r="Q115" s="2" t="str">
+        <f t="shared" si="17"/>
+        <v>W</v>
+      </c>
+    </row>
+    <row r="116" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A116" s="2" t="s">
         <v>537</v>
       </c>
@@ -4425,8 +8644,44 @@
       <c r="F116" s="2" t="s">
         <v>542</v>
       </c>
-    </row>
-    <row r="117" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="H116" s="2">
+        <f t="shared" si="18"/>
+        <v>115</v>
+      </c>
+      <c r="J116" s="2" t="str">
+        <f t="shared" si="11"/>
+        <v>6</v>
+      </c>
+      <c r="K116" s="2" t="str">
+        <f t="shared" si="12"/>
+        <v xml:space="preserve"> 4</v>
+      </c>
+      <c r="L116" s="2" t="str">
+        <f t="shared" si="13"/>
+        <v xml:space="preserve"> 27.681</v>
+      </c>
+      <c r="M116" s="2" t="str">
+        <f t="shared" si="19"/>
+        <v>N</v>
+      </c>
+      <c r="N116" s="2" t="str">
+        <f t="shared" si="14"/>
+        <v>58</v>
+      </c>
+      <c r="O116" s="2" t="str">
+        <f t="shared" si="15"/>
+        <v xml:space="preserve"> 7 </v>
+      </c>
+      <c r="P116" s="2" t="str">
+        <f t="shared" si="16"/>
+        <v xml:space="preserve"> 45.843</v>
+      </c>
+      <c r="Q116" s="2" t="str">
+        <f t="shared" si="17"/>
+        <v>W</v>
+      </c>
+    </row>
+    <row r="117" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A117" s="2" t="s">
         <v>543</v>
       </c>
@@ -4445,8 +8700,44 @@
       <c r="F117" s="2" t="s">
         <v>548</v>
       </c>
-    </row>
-    <row r="118" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="H117" s="2">
+        <f t="shared" si="18"/>
+        <v>116</v>
+      </c>
+      <c r="J117" s="2" t="str">
+        <f t="shared" si="11"/>
+        <v>9</v>
+      </c>
+      <c r="K117" s="2" t="str">
+        <f t="shared" si="12"/>
+        <v xml:space="preserve"> 0</v>
+      </c>
+      <c r="L117" s="2" t="str">
+        <f t="shared" si="13"/>
+        <v xml:space="preserve"> 12.306</v>
+      </c>
+      <c r="M117" s="2" t="str">
+        <f t="shared" si="19"/>
+        <v>N</v>
+      </c>
+      <c r="N117" s="2" t="str">
+        <f t="shared" si="14"/>
+        <v>79</v>
+      </c>
+      <c r="O117" s="2" t="str">
+        <f t="shared" si="15"/>
+        <v xml:space="preserve"> 35</v>
+      </c>
+      <c r="P117" s="2" t="str">
+        <f t="shared" si="16"/>
+        <v xml:space="preserve"> 3.589 </v>
+      </c>
+      <c r="Q117" s="2" t="str">
+        <f t="shared" si="17"/>
+        <v>W</v>
+      </c>
+    </row>
+    <row r="118" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A118" s="2" t="s">
         <v>549</v>
       </c>
@@ -4465,8 +8756,44 @@
       <c r="F118" s="2" t="s">
         <v>551</v>
       </c>
-    </row>
-    <row r="119" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="H118" s="2">
+        <f t="shared" si="18"/>
+        <v>117</v>
+      </c>
+      <c r="J118" s="2" t="str">
+        <f t="shared" si="11"/>
+        <v>9</v>
+      </c>
+      <c r="K118" s="2" t="str">
+        <f t="shared" si="12"/>
+        <v xml:space="preserve"> 0</v>
+      </c>
+      <c r="L118" s="2" t="str">
+        <f t="shared" si="13"/>
+        <v xml:space="preserve"> 12.306</v>
+      </c>
+      <c r="M118" s="2" t="str">
+        <f t="shared" si="19"/>
+        <v>N</v>
+      </c>
+      <c r="N118" s="2" t="str">
+        <f t="shared" si="14"/>
+        <v>79</v>
+      </c>
+      <c r="O118" s="2" t="str">
+        <f t="shared" si="15"/>
+        <v xml:space="preserve"> 35</v>
+      </c>
+      <c r="P118" s="2" t="str">
+        <f t="shared" si="16"/>
+        <v xml:space="preserve"> 3.582 </v>
+      </c>
+      <c r="Q118" s="2" t="str">
+        <f t="shared" si="17"/>
+        <v>W</v>
+      </c>
+    </row>
+    <row r="119" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A119" s="2" t="s">
         <v>543</v>
       </c>
@@ -4485,8 +8812,44 @@
       <c r="F119" s="2" t="s">
         <v>554</v>
       </c>
-    </row>
-    <row r="120" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="H119" s="2">
+        <f t="shared" si="18"/>
+        <v>118</v>
+      </c>
+      <c r="J119" s="2" t="str">
+        <f t="shared" si="11"/>
+        <v>9</v>
+      </c>
+      <c r="K119" s="2" t="str">
+        <f t="shared" si="12"/>
+        <v xml:space="preserve"> 0</v>
+      </c>
+      <c r="L119" s="2" t="str">
+        <f t="shared" si="13"/>
+        <v xml:space="preserve"> 12.309</v>
+      </c>
+      <c r="M119" s="2" t="str">
+        <f t="shared" si="19"/>
+        <v>N</v>
+      </c>
+      <c r="N119" s="2" t="str">
+        <f t="shared" si="14"/>
+        <v>79</v>
+      </c>
+      <c r="O119" s="2" t="str">
+        <f t="shared" si="15"/>
+        <v xml:space="preserve"> 35</v>
+      </c>
+      <c r="P119" s="2" t="str">
+        <f t="shared" si="16"/>
+        <v xml:space="preserve"> 3.590 </v>
+      </c>
+      <c r="Q119" s="2" t="str">
+        <f t="shared" si="17"/>
+        <v>W</v>
+      </c>
+    </row>
+    <row r="120" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A120" s="2" t="s">
         <v>365</v>
       </c>
@@ -4505,8 +8868,44 @@
       <c r="F120" s="2" t="s">
         <v>559</v>
       </c>
-    </row>
-    <row r="121" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="H120" s="2">
+        <f t="shared" si="18"/>
+        <v>119</v>
+      </c>
+      <c r="J120" s="2" t="str">
+        <f t="shared" si="11"/>
+        <v>9</v>
+      </c>
+      <c r="K120" s="2" t="str">
+        <f t="shared" si="12"/>
+        <v xml:space="preserve"> 5</v>
+      </c>
+      <c r="L120" s="2" t="str">
+        <f t="shared" si="13"/>
+        <v xml:space="preserve"> 52.809</v>
+      </c>
+      <c r="M120" s="2" t="str">
+        <f t="shared" si="19"/>
+        <v>N</v>
+      </c>
+      <c r="N120" s="2" t="str">
+        <f t="shared" si="14"/>
+        <v>84</v>
+      </c>
+      <c r="O120" s="2" t="str">
+        <f t="shared" si="15"/>
+        <v xml:space="preserve"> 3 </v>
+      </c>
+      <c r="P120" s="2" t="str">
+        <f t="shared" si="16"/>
+        <v xml:space="preserve"> 22.568</v>
+      </c>
+      <c r="Q120" s="2" t="str">
+        <f t="shared" si="17"/>
+        <v>W</v>
+      </c>
+    </row>
+    <row r="121" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A121" s="2" t="s">
         <v>560</v>
       </c>
@@ -4524,6 +8923,42 @@
       </c>
       <c r="F121" s="2" t="s">
         <v>563</v>
+      </c>
+      <c r="H121" s="2">
+        <f t="shared" si="18"/>
+        <v>120</v>
+      </c>
+      <c r="J121" s="2" t="str">
+        <f t="shared" si="11"/>
+        <v>9</v>
+      </c>
+      <c r="K121" s="2" t="str">
+        <f t="shared" si="12"/>
+        <v xml:space="preserve"> 5</v>
+      </c>
+      <c r="L121" s="2" t="str">
+        <f t="shared" si="13"/>
+        <v xml:space="preserve"> 53.341</v>
+      </c>
+      <c r="M121" s="2" t="str">
+        <f t="shared" si="19"/>
+        <v>N</v>
+      </c>
+      <c r="N121" s="2" t="str">
+        <f t="shared" si="14"/>
+        <v>84</v>
+      </c>
+      <c r="O121" s="2" t="str">
+        <f t="shared" si="15"/>
+        <v xml:space="preserve"> 3 </v>
+      </c>
+      <c r="P121" s="2" t="str">
+        <f t="shared" si="16"/>
+        <v xml:space="preserve"> 22.525</v>
+      </c>
+      <c r="Q121" s="2" t="str">
+        <f t="shared" si="17"/>
+        <v>W</v>
       </c>
     </row>
   </sheetData>
